--- a/passenger_flows/weekend/AlightVolume-30min/alight_5号线-idx-2.xlsx
+++ b/passenger_flows/weekend/AlightVolume-30min/alight_5号线-idx-2.xlsx
@@ -744,109 +744,109 @@
         <v>1</v>
       </c>
       <c r="D3">
+        <v>45</v>
+      </c>
+      <c r="E3">
+        <v>64</v>
+      </c>
+      <c r="F3">
+        <v>75</v>
+      </c>
+      <c r="G3">
+        <v>81</v>
+      </c>
+      <c r="H3">
+        <v>83</v>
+      </c>
+      <c r="I3">
+        <v>76</v>
+      </c>
+      <c r="J3">
+        <v>63</v>
+      </c>
+      <c r="K3">
+        <v>45</v>
+      </c>
+      <c r="L3">
+        <v>19</v>
+      </c>
+      <c r="M3">
+        <v>18</v>
+      </c>
+      <c r="N3">
+        <v>17</v>
+      </c>
+      <c r="O3">
+        <v>14</v>
+      </c>
+      <c r="P3">
+        <v>18</v>
+      </c>
+      <c r="Q3">
+        <v>16</v>
+      </c>
+      <c r="R3">
+        <v>12</v>
+      </c>
+      <c r="S3">
+        <v>17</v>
+      </c>
+      <c r="T3">
+        <v>14</v>
+      </c>
+      <c r="U3">
+        <v>17</v>
+      </c>
+      <c r="V3">
+        <v>16</v>
+      </c>
+      <c r="W3">
+        <v>19</v>
+      </c>
+      <c r="X3">
+        <v>26</v>
+      </c>
+      <c r="Y3">
+        <v>34</v>
+      </c>
+      <c r="Z3">
+        <v>45</v>
+      </c>
+      <c r="AA3">
+        <v>77</v>
+      </c>
+      <c r="AB3">
+        <v>79</v>
+      </c>
+      <c r="AC3">
+        <v>46</v>
+      </c>
+      <c r="AD3">
+        <v>82</v>
+      </c>
+      <c r="AE3">
+        <v>83</v>
+      </c>
+      <c r="AF3">
+        <v>69</v>
+      </c>
+      <c r="AG3">
+        <v>62</v>
+      </c>
+      <c r="AH3">
         <v>47</v>
       </c>
-      <c r="E3">
-        <v>66</v>
-      </c>
-      <c r="F3">
-        <v>79</v>
-      </c>
-      <c r="G3">
-        <v>85</v>
-      </c>
-      <c r="H3">
-        <v>85</v>
-      </c>
-      <c r="I3">
-        <v>79</v>
-      </c>
-      <c r="J3">
-        <v>66</v>
-      </c>
-      <c r="K3">
-        <v>47</v>
-      </c>
-      <c r="L3">
-        <v>28</v>
-      </c>
-      <c r="M3">
-        <v>27</v>
-      </c>
-      <c r="N3">
-        <v>24</v>
-      </c>
-      <c r="O3">
-        <v>20</v>
-      </c>
-      <c r="P3">
-        <v>26</v>
-      </c>
-      <c r="Q3">
-        <v>24</v>
-      </c>
-      <c r="R3">
-        <v>18</v>
-      </c>
-      <c r="S3">
+      <c r="AI3">
+        <v>52</v>
+      </c>
+      <c r="AJ3">
+        <v>40</v>
+      </c>
+      <c r="AK3">
         <v>25</v>
       </c>
-      <c r="T3">
-        <v>20</v>
-      </c>
-      <c r="U3">
-        <v>25</v>
-      </c>
-      <c r="V3">
-        <v>24</v>
-      </c>
-      <c r="W3">
-        <v>29</v>
-      </c>
-      <c r="X3">
-        <v>39</v>
-      </c>
-      <c r="Y3">
-        <v>48</v>
-      </c>
-      <c r="Z3">
-        <v>47</v>
-      </c>
-      <c r="AA3">
-        <v>81</v>
-      </c>
-      <c r="AB3">
-        <v>81</v>
-      </c>
-      <c r="AC3">
-        <v>47</v>
-      </c>
-      <c r="AD3">
-        <v>85</v>
-      </c>
-      <c r="AE3">
-        <v>85</v>
-      </c>
-      <c r="AF3">
-        <v>71</v>
-      </c>
-      <c r="AG3">
-        <v>64</v>
-      </c>
-      <c r="AH3">
-        <v>49</v>
-      </c>
-      <c r="AI3">
-        <v>53</v>
-      </c>
-      <c r="AJ3">
-        <v>41</v>
-      </c>
-      <c r="AK3">
-        <v>26</v>
-      </c>
       <c r="AL3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM3">
         <v>1</v>
@@ -863,109 +863,109 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4">
+        <v>77</v>
+      </c>
+      <c r="F4">
+        <v>91</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>98</v>
+      </c>
+      <c r="I4">
+        <v>92</v>
+      </c>
+      <c r="J4">
+        <v>76</v>
+      </c>
+      <c r="K4">
+        <v>56</v>
+      </c>
+      <c r="L4">
+        <v>19</v>
+      </c>
+      <c r="M4">
+        <v>20</v>
+      </c>
+      <c r="N4">
+        <v>15</v>
+      </c>
+      <c r="O4">
+        <v>20</v>
+      </c>
+      <c r="P4">
+        <v>21</v>
+      </c>
+      <c r="Q4">
+        <v>18</v>
+      </c>
+      <c r="R4">
+        <v>18</v>
+      </c>
+      <c r="S4">
+        <v>19</v>
+      </c>
+      <c r="T4">
+        <v>18</v>
+      </c>
+      <c r="U4">
+        <v>19</v>
+      </c>
+      <c r="V4">
+        <v>21</v>
+      </c>
+      <c r="W4">
+        <v>28</v>
+      </c>
+      <c r="X4">
+        <v>37</v>
+      </c>
+      <c r="Y4">
+        <v>45</v>
+      </c>
+      <c r="Z4">
+        <v>55</v>
+      </c>
+      <c r="AA4">
+        <v>95</v>
+      </c>
+      <c r="AB4">
+        <v>93</v>
+      </c>
+      <c r="AC4">
+        <v>55</v>
+      </c>
+      <c r="AD4">
+        <v>101</v>
+      </c>
+      <c r="AE4">
+        <v>98</v>
+      </c>
+      <c r="AF4">
         <v>80</v>
       </c>
-      <c r="F4">
-        <v>95</v>
-      </c>
-      <c r="G4">
-        <v>103</v>
-      </c>
-      <c r="H4">
-        <v>103</v>
-      </c>
-      <c r="I4">
-        <v>95</v>
-      </c>
-      <c r="J4">
-        <v>80</v>
-      </c>
-      <c r="K4">
-        <v>57</v>
-      </c>
-      <c r="L4">
-        <v>29</v>
-      </c>
-      <c r="M4">
-        <v>30</v>
-      </c>
-      <c r="N4">
-        <v>23</v>
-      </c>
-      <c r="O4">
-        <v>29</v>
-      </c>
-      <c r="P4">
-        <v>31</v>
-      </c>
-      <c r="Q4">
-        <v>27</v>
-      </c>
-      <c r="R4">
-        <v>26</v>
-      </c>
-      <c r="S4">
-        <v>28</v>
-      </c>
-      <c r="T4">
-        <v>26</v>
-      </c>
-      <c r="U4">
-        <v>28</v>
-      </c>
-      <c r="V4">
-        <v>32</v>
-      </c>
-      <c r="W4">
-        <v>42</v>
-      </c>
-      <c r="X4">
-        <v>56</v>
-      </c>
-      <c r="Y4">
+      <c r="AG4">
         <v>66</v>
       </c>
-      <c r="Z4">
-        <v>57</v>
-      </c>
-      <c r="AA4">
-        <v>98</v>
-      </c>
-      <c r="AB4">
-        <v>98</v>
-      </c>
-      <c r="AC4">
-        <v>57</v>
-      </c>
-      <c r="AD4">
-        <v>103</v>
-      </c>
-      <c r="AE4">
-        <v>103</v>
-      </c>
-      <c r="AF4">
-        <v>84</v>
-      </c>
-      <c r="AG4">
-        <v>69</v>
-      </c>
       <c r="AH4">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AI4">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AJ4">
         <v>51</v>
       </c>
       <c r="AK4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM4">
         <v>4</v>
@@ -982,97 +982,97 @@
         <v>3</v>
       </c>
       <c r="D5">
+        <v>68</v>
+      </c>
+      <c r="E5">
+        <v>95</v>
+      </c>
+      <c r="F5">
+        <v>115</v>
+      </c>
+      <c r="G5">
+        <v>125</v>
+      </c>
+      <c r="H5">
+        <v>125</v>
+      </c>
+      <c r="I5">
+        <v>115</v>
+      </c>
+      <c r="J5">
+        <v>96</v>
+      </c>
+      <c r="K5">
+        <v>68</v>
+      </c>
+      <c r="L5">
+        <v>88</v>
+      </c>
+      <c r="M5">
+        <v>83</v>
+      </c>
+      <c r="N5">
         <v>71</v>
       </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-      <c r="F5">
+      <c r="O5">
+        <v>56</v>
+      </c>
+      <c r="P5">
+        <v>53</v>
+      </c>
+      <c r="Q5">
+        <v>44</v>
+      </c>
+      <c r="R5">
+        <v>40</v>
+      </c>
+      <c r="S5">
+        <v>50</v>
+      </c>
+      <c r="T5">
+        <v>56</v>
+      </c>
+      <c r="U5">
+        <v>44</v>
+      </c>
+      <c r="V5">
+        <v>41</v>
+      </c>
+      <c r="W5">
+        <v>44</v>
+      </c>
+      <c r="X5">
+        <v>34</v>
+      </c>
+      <c r="Y5">
+        <v>35</v>
+      </c>
+      <c r="Z5">
+        <v>68</v>
+      </c>
+      <c r="AA5">
         <v>120</v>
       </c>
-      <c r="G5">
-        <v>129</v>
-      </c>
-      <c r="H5">
-        <v>129</v>
-      </c>
-      <c r="I5">
-        <v>120</v>
-      </c>
-      <c r="J5">
-        <v>100</v>
-      </c>
-      <c r="K5">
-        <v>71</v>
-      </c>
-      <c r="L5">
-        <v>129</v>
-      </c>
-      <c r="M5">
+      <c r="AB5">
         <v>121</v>
       </c>
-      <c r="N5">
-        <v>104</v>
-      </c>
-      <c r="O5">
-        <v>81</v>
-      </c>
-      <c r="P5">
-        <v>80</v>
-      </c>
-      <c r="Q5">
-        <v>66</v>
-      </c>
-      <c r="R5">
-        <v>59</v>
-      </c>
-      <c r="S5">
-        <v>73</v>
-      </c>
-      <c r="T5">
-        <v>81</v>
-      </c>
-      <c r="U5">
-        <v>66</v>
-      </c>
-      <c r="V5">
-        <v>61</v>
-      </c>
-      <c r="W5">
-        <v>66</v>
-      </c>
-      <c r="X5">
-        <v>52</v>
-      </c>
-      <c r="Y5">
-        <v>53</v>
-      </c>
-      <c r="Z5">
-        <v>71</v>
-      </c>
-      <c r="AA5">
-        <v>124</v>
-      </c>
-      <c r="AB5">
-        <v>124</v>
-      </c>
       <c r="AC5">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AD5">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE5">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AF5">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AG5">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AH5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI5">
         <v>27</v>
@@ -1081,7 +1081,7 @@
         <v>25</v>
       </c>
       <c r="AK5">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL5">
         <v>6</v>
@@ -1101,100 +1101,100 @@
         <v>3</v>
       </c>
       <c r="D6">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E6">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F6">
+        <v>71</v>
+      </c>
+      <c r="G6">
+        <v>75</v>
+      </c>
+      <c r="H6">
+        <v>76</v>
+      </c>
+      <c r="I6">
+        <v>70</v>
+      </c>
+      <c r="J6">
+        <v>59</v>
+      </c>
+      <c r="K6">
+        <v>41</v>
+      </c>
+      <c r="L6">
+        <v>48</v>
+      </c>
+      <c r="M6">
+        <v>40</v>
+      </c>
+      <c r="N6">
+        <v>30</v>
+      </c>
+      <c r="O6">
+        <v>32</v>
+      </c>
+      <c r="P6">
+        <v>27</v>
+      </c>
+      <c r="Q6">
+        <v>29</v>
+      </c>
+      <c r="R6">
+        <v>32</v>
+      </c>
+      <c r="S6">
+        <v>31</v>
+      </c>
+      <c r="T6">
+        <v>30</v>
+      </c>
+      <c r="U6">
+        <v>27</v>
+      </c>
+      <c r="V6">
+        <v>29</v>
+      </c>
+      <c r="W6">
+        <v>29</v>
+      </c>
+      <c r="X6">
+        <v>29</v>
+      </c>
+      <c r="Y6">
+        <v>30</v>
+      </c>
+      <c r="Z6">
+        <v>42</v>
+      </c>
+      <c r="AA6">
         <v>73</v>
       </c>
-      <c r="G6">
-        <v>79</v>
-      </c>
-      <c r="H6">
-        <v>79</v>
-      </c>
-      <c r="I6">
-        <v>73</v>
-      </c>
-      <c r="J6">
-        <v>61</v>
-      </c>
-      <c r="K6">
-        <v>43</v>
-      </c>
-      <c r="L6">
-        <v>70</v>
-      </c>
-      <c r="M6">
-        <v>58</v>
-      </c>
-      <c r="N6">
-        <v>44</v>
-      </c>
-      <c r="O6">
-        <v>47</v>
-      </c>
-      <c r="P6">
-        <v>40</v>
-      </c>
-      <c r="Q6">
-        <v>44</v>
-      </c>
-      <c r="R6">
-        <v>48</v>
-      </c>
-      <c r="S6">
-        <v>46</v>
-      </c>
-      <c r="T6">
-        <v>45</v>
-      </c>
-      <c r="U6">
-        <v>41</v>
-      </c>
-      <c r="V6">
-        <v>43</v>
-      </c>
-      <c r="W6">
-        <v>44</v>
-      </c>
-      <c r="X6">
-        <v>44</v>
-      </c>
-      <c r="Y6">
-        <v>45</v>
-      </c>
-      <c r="Z6">
-        <v>43</v>
-      </c>
-      <c r="AA6">
-        <v>76</v>
-      </c>
       <c r="AB6">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AC6">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AD6">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AE6">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF6">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH6">
         <v>17</v>
       </c>
       <c r="AI6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ6">
         <v>16</v>
@@ -1217,112 +1217,112 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D7">
-        <v>714</v>
+        <v>691</v>
       </c>
       <c r="E7">
-        <v>1005</v>
+        <v>962</v>
       </c>
       <c r="F7">
-        <v>1199</v>
+        <v>1166</v>
       </c>
       <c r="G7">
-        <v>1297</v>
+        <v>1254</v>
       </c>
       <c r="H7">
-        <v>1297</v>
+        <v>1236</v>
       </c>
       <c r="I7">
-        <v>1199</v>
+        <v>1166</v>
       </c>
       <c r="J7">
-        <v>1005</v>
+        <v>960</v>
       </c>
       <c r="K7">
-        <v>714</v>
+        <v>688</v>
       </c>
       <c r="L7">
-        <v>1223</v>
+        <v>826</v>
       </c>
       <c r="M7">
-        <v>948</v>
+        <v>640</v>
       </c>
       <c r="N7">
-        <v>722</v>
+        <v>500</v>
       </c>
       <c r="O7">
-        <v>707</v>
+        <v>478</v>
       </c>
       <c r="P7">
-        <v>708</v>
+        <v>481</v>
       </c>
       <c r="Q7">
-        <v>926</v>
+        <v>619</v>
       </c>
       <c r="R7">
-        <v>930</v>
+        <v>633</v>
       </c>
       <c r="S7">
-        <v>746</v>
+        <v>495</v>
       </c>
       <c r="T7">
-        <v>748</v>
+        <v>509</v>
       </c>
       <c r="U7">
-        <v>705</v>
+        <v>478</v>
       </c>
       <c r="V7">
-        <v>648</v>
+        <v>434</v>
       </c>
       <c r="W7">
-        <v>616</v>
+        <v>416</v>
       </c>
       <c r="X7">
-        <v>633</v>
+        <v>427</v>
       </c>
       <c r="Y7">
-        <v>814</v>
+        <v>550</v>
       </c>
       <c r="Z7">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="AA7">
-        <v>1243</v>
+        <v>1201</v>
       </c>
       <c r="AB7">
-        <v>1243</v>
+        <v>1200</v>
       </c>
       <c r="AC7">
-        <v>714</v>
+        <v>691</v>
       </c>
       <c r="AD7">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="AE7">
-        <v>569</v>
+        <v>552</v>
       </c>
       <c r="AF7">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="AG7">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="AH7">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="AI7">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="AJ7">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="AK7">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AL7">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AM7">
         <v>0</v>
@@ -1336,112 +1336,112 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D8">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="E8">
-        <v>656</v>
+        <v>637</v>
       </c>
       <c r="F8">
-        <v>783</v>
+        <v>751</v>
       </c>
       <c r="G8">
-        <v>846</v>
+        <v>824</v>
       </c>
       <c r="H8">
-        <v>846</v>
+        <v>829</v>
       </c>
       <c r="I8">
-        <v>783</v>
+        <v>747</v>
       </c>
       <c r="J8">
-        <v>656</v>
+        <v>624</v>
       </c>
       <c r="K8">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="L8">
-        <v>770</v>
+        <v>530</v>
       </c>
       <c r="M8">
-        <v>635</v>
+        <v>424</v>
       </c>
       <c r="N8">
-        <v>552</v>
+        <v>382</v>
       </c>
       <c r="O8">
-        <v>339</v>
+        <v>231</v>
       </c>
       <c r="P8">
-        <v>532</v>
+        <v>356</v>
       </c>
       <c r="Q8">
-        <v>486</v>
+        <v>321</v>
       </c>
       <c r="R8">
-        <v>433</v>
+        <v>297</v>
       </c>
       <c r="S8">
-        <v>534</v>
+        <v>361</v>
       </c>
       <c r="T8">
-        <v>505</v>
+        <v>342</v>
       </c>
       <c r="U8">
-        <v>474</v>
+        <v>325</v>
       </c>
       <c r="V8">
-        <v>440</v>
+        <v>292</v>
       </c>
       <c r="W8">
-        <v>398</v>
+        <v>265</v>
       </c>
       <c r="X8">
-        <v>457</v>
+        <v>310</v>
       </c>
       <c r="Y8">
-        <v>517</v>
+        <v>354</v>
       </c>
       <c r="Z8">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="AA8">
-        <v>811</v>
+        <v>793</v>
       </c>
       <c r="AB8">
-        <v>811</v>
+        <v>793</v>
       </c>
       <c r="AC8">
-        <v>466</v>
+        <v>446</v>
       </c>
       <c r="AD8">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="AE8">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="AF8">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="AG8">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="AH8">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="AI8">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AJ8">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AK8">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AL8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AM8">
         <v>3</v>
@@ -1455,100 +1455,100 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E9">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="F9">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="G9">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="H9">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="I9">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="J9">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="K9">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="L9">
-        <v>341</v>
+        <v>227</v>
       </c>
       <c r="M9">
-        <v>341</v>
+        <v>229</v>
       </c>
       <c r="N9">
-        <v>232</v>
+        <v>156</v>
       </c>
       <c r="O9">
-        <v>196</v>
+        <v>134</v>
       </c>
       <c r="P9">
-        <v>216</v>
+        <v>145</v>
       </c>
       <c r="Q9">
-        <v>246</v>
+        <v>163</v>
       </c>
       <c r="R9">
-        <v>231</v>
+        <v>157</v>
       </c>
       <c r="S9">
-        <v>202</v>
+        <v>135</v>
       </c>
       <c r="T9">
-        <v>192</v>
+        <v>128</v>
       </c>
       <c r="U9">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="V9">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="W9">
-        <v>156</v>
+        <v>104</v>
       </c>
       <c r="X9">
-        <v>153</v>
+        <v>101</v>
       </c>
       <c r="Y9">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="Z9">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="AA9">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="AB9">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="AC9">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="AD9">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AE9">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AF9">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AG9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AH9">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AI9">
         <v>53</v>
@@ -1557,10 +1557,10 @@
         <v>53</v>
       </c>
       <c r="AK9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM9">
         <v>0</v>
@@ -1577,106 +1577,106 @@
         <v>6</v>
       </c>
       <c r="D10">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E10">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F10">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G10">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H10">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="I10">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="J10">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K10">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L10">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="M10">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="N10">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="O10">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="P10">
+        <v>47</v>
+      </c>
+      <c r="Q10">
+        <v>64</v>
+      </c>
+      <c r="R10">
+        <v>63</v>
+      </c>
+      <c r="S10">
+        <v>76</v>
+      </c>
+      <c r="T10">
+        <v>64</v>
+      </c>
+      <c r="U10">
+        <v>64</v>
+      </c>
+      <c r="V10">
+        <v>62</v>
+      </c>
+      <c r="W10">
+        <v>54</v>
+      </c>
+      <c r="X10">
+        <v>52</v>
+      </c>
+      <c r="Y10">
         <v>69</v>
       </c>
-      <c r="Q10">
-        <v>96</v>
-      </c>
-      <c r="R10">
-        <v>94</v>
-      </c>
-      <c r="S10">
-        <v>114</v>
-      </c>
-      <c r="T10">
-        <v>94</v>
-      </c>
-      <c r="U10">
-        <v>95</v>
-      </c>
-      <c r="V10">
+      <c r="Z10">
+        <v>89</v>
+      </c>
+      <c r="AA10">
+        <v>156</v>
+      </c>
+      <c r="AB10">
+        <v>154</v>
+      </c>
+      <c r="AC10">
+        <v>89</v>
+      </c>
+      <c r="AD10">
         <v>91</v>
       </c>
-      <c r="W10">
-        <v>80</v>
-      </c>
-      <c r="X10">
-        <v>76</v>
-      </c>
-      <c r="Y10">
-        <v>101</v>
-      </c>
-      <c r="Z10">
-        <v>93</v>
-      </c>
-      <c r="AA10">
-        <v>162</v>
-      </c>
-      <c r="AB10">
-        <v>162</v>
-      </c>
-      <c r="AC10">
-        <v>93</v>
-      </c>
-      <c r="AD10">
-        <v>94</v>
-      </c>
       <c r="AE10">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AF10">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AG10">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH10">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI10">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AJ10">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AK10">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL10">
         <v>17</v>
@@ -1696,109 +1696,109 @@
         <v>5</v>
       </c>
       <c r="D11">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E11">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F11">
+        <v>143</v>
+      </c>
+      <c r="G11">
+        <v>155</v>
+      </c>
+      <c r="H11">
+        <v>156</v>
+      </c>
+      <c r="I11">
+        <v>142</v>
+      </c>
+      <c r="J11">
+        <v>120</v>
+      </c>
+      <c r="K11">
+        <v>86</v>
+      </c>
+      <c r="L11">
+        <v>109</v>
+      </c>
+      <c r="M11">
+        <v>79</v>
+      </c>
+      <c r="N11">
+        <v>51</v>
+      </c>
+      <c r="O11">
+        <v>55</v>
+      </c>
+      <c r="P11">
+        <v>47</v>
+      </c>
+      <c r="Q11">
+        <v>46</v>
+      </c>
+      <c r="R11">
+        <v>63</v>
+      </c>
+      <c r="S11">
+        <v>59</v>
+      </c>
+      <c r="T11">
+        <v>51</v>
+      </c>
+      <c r="U11">
+        <v>55</v>
+      </c>
+      <c r="V11">
+        <v>82</v>
+      </c>
+      <c r="W11">
+        <v>56</v>
+      </c>
+      <c r="X11">
+        <v>44</v>
+      </c>
+      <c r="Y11">
+        <v>60</v>
+      </c>
+      <c r="Z11">
+        <v>85</v>
+      </c>
+      <c r="AA11">
+        <v>150</v>
+      </c>
+      <c r="AB11">
         <v>149</v>
       </c>
-      <c r="G11">
-        <v>161</v>
-      </c>
-      <c r="H11">
-        <v>161</v>
-      </c>
-      <c r="I11">
-        <v>149</v>
-      </c>
-      <c r="J11">
-        <v>125</v>
-      </c>
-      <c r="K11">
-        <v>89</v>
-      </c>
-      <c r="L11">
-        <v>160</v>
-      </c>
-      <c r="M11">
-        <v>117</v>
-      </c>
-      <c r="N11">
-        <v>74</v>
-      </c>
-      <c r="O11">
-        <v>82</v>
-      </c>
-      <c r="P11">
-        <v>71</v>
-      </c>
-      <c r="Q11">
-        <v>70</v>
-      </c>
-      <c r="R11">
-        <v>92</v>
-      </c>
-      <c r="S11">
-        <v>88</v>
-      </c>
-      <c r="T11">
-        <v>76</v>
-      </c>
-      <c r="U11">
-        <v>80</v>
-      </c>
-      <c r="V11">
-        <v>122</v>
-      </c>
-      <c r="W11">
-        <v>83</v>
-      </c>
-      <c r="X11">
-        <v>66</v>
-      </c>
-      <c r="Y11">
-        <v>89</v>
-      </c>
-      <c r="Z11">
-        <v>89</v>
-      </c>
-      <c r="AA11">
-        <v>154</v>
-      </c>
-      <c r="AB11">
-        <v>154</v>
-      </c>
       <c r="AC11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AD11">
         <v>105</v>
       </c>
       <c r="AE11">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AF11">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AG11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AH11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AI11">
         <v>52</v>
       </c>
       <c r="AJ11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AK11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AL11">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM11">
         <v>2</v>
@@ -1815,109 +1815,109 @@
         <v>6</v>
       </c>
       <c r="D12">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E12">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F12">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G12">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="H12">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="I12">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="J12">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="K12">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="L12">
-        <v>224</v>
+        <v>153</v>
       </c>
       <c r="M12">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="N12">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="O12">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="P12">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="Q12">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="R12">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="S12">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="T12">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="U12">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="V12">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="W12">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="X12">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="Y12">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="Z12">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AA12">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="AB12">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="AC12">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AD12">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AE12">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AF12">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AG12">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AH12">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="AI12">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ12">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AK12">
         <v>54</v>
       </c>
       <c r="AL12">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM12">
         <v>5</v>
@@ -1931,112 +1931,112 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="E13">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="F13">
-        <v>568</v>
+        <v>541</v>
       </c>
       <c r="G13">
-        <v>614</v>
+        <v>590</v>
       </c>
       <c r="H13">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="I13">
-        <v>568</v>
+        <v>546</v>
       </c>
       <c r="J13">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="K13">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="L13">
-        <v>579</v>
+        <v>391</v>
       </c>
       <c r="M13">
-        <v>440</v>
+        <v>298</v>
       </c>
       <c r="N13">
-        <v>346</v>
+        <v>238</v>
       </c>
       <c r="O13">
-        <v>354</v>
+        <v>240</v>
       </c>
       <c r="P13">
-        <v>329</v>
+        <v>224</v>
       </c>
       <c r="Q13">
-        <v>314</v>
+        <v>208</v>
       </c>
       <c r="R13">
-        <v>338</v>
+        <v>232</v>
       </c>
       <c r="S13">
-        <v>388</v>
+        <v>262</v>
       </c>
       <c r="T13">
-        <v>312</v>
+        <v>211</v>
       </c>
       <c r="U13">
+        <v>225</v>
+      </c>
+      <c r="V13">
+        <v>199</v>
+      </c>
+      <c r="W13">
+        <v>202</v>
+      </c>
+      <c r="X13">
+        <v>203</v>
+      </c>
+      <c r="Y13">
+        <v>283</v>
+      </c>
+      <c r="Z13">
         <v>330</v>
       </c>
-      <c r="V13">
-        <v>292</v>
-      </c>
-      <c r="W13">
-        <v>303</v>
-      </c>
-      <c r="X13">
-        <v>307</v>
-      </c>
-      <c r="Y13">
-        <v>415</v>
-      </c>
-      <c r="Z13">
-        <v>338</v>
-      </c>
       <c r="AA13">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="AB13">
-        <v>589</v>
+        <v>569</v>
       </c>
       <c r="AC13">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="AD13">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="AE13">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AF13">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AG13">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AH13">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="AI13">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AJ13">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK13">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AL13">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM13">
         <v>5</v>
@@ -2053,109 +2053,109 @@
         <v>12</v>
       </c>
       <c r="D14">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="E14">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="F14">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="G14">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="H14">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="I14">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="J14">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="K14">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="L14">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="M14">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="N14">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="O14">
-        <v>174</v>
+        <v>116</v>
       </c>
       <c r="P14">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="Q14">
-        <v>165</v>
+        <v>111</v>
       </c>
       <c r="R14">
-        <v>145</v>
+        <v>97</v>
       </c>
       <c r="S14">
-        <v>189</v>
+        <v>126</v>
       </c>
       <c r="T14">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="U14">
-        <v>194</v>
+        <v>131</v>
       </c>
       <c r="V14">
-        <v>217</v>
+        <v>144</v>
       </c>
       <c r="W14">
+        <v>123</v>
+      </c>
+      <c r="X14">
+        <v>119</v>
+      </c>
+      <c r="Y14">
         <v>180</v>
       </c>
-      <c r="X14">
-        <v>177</v>
-      </c>
-      <c r="Y14">
-        <v>262</v>
-      </c>
       <c r="Z14">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="AA14">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="AB14">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="AC14">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="AD14">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AE14">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="AF14">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="AG14">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AH14">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="AI14">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AJ14">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AK14">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AL14">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AM14">
         <v>7</v>
@@ -2169,112 +2169,112 @@
         <v>3</v>
       </c>
       <c r="C15">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="E15">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F15">
+        <v>384</v>
+      </c>
+      <c r="G15">
+        <v>419</v>
+      </c>
+      <c r="H15">
+        <v>415</v>
+      </c>
+      <c r="I15">
+        <v>386</v>
+      </c>
+      <c r="J15">
+        <v>323</v>
+      </c>
+      <c r="K15">
+        <v>230</v>
+      </c>
+      <c r="L15">
+        <v>289</v>
+      </c>
+      <c r="M15">
+        <v>170</v>
+      </c>
+      <c r="N15">
+        <v>130</v>
+      </c>
+      <c r="O15">
+        <v>123</v>
+      </c>
+      <c r="P15">
+        <v>134</v>
+      </c>
+      <c r="Q15">
+        <v>116</v>
+      </c>
+      <c r="R15">
+        <v>131</v>
+      </c>
+      <c r="S15">
+        <v>136</v>
+      </c>
+      <c r="T15">
+        <v>117</v>
+      </c>
+      <c r="U15">
+        <v>121</v>
+      </c>
+      <c r="V15">
+        <v>112</v>
+      </c>
+      <c r="W15">
+        <v>128</v>
+      </c>
+      <c r="X15">
+        <v>135</v>
+      </c>
+      <c r="Y15">
+        <v>158</v>
+      </c>
+      <c r="Z15">
+        <v>234</v>
+      </c>
+      <c r="AA15">
+        <v>398</v>
+      </c>
+      <c r="AB15">
         <v>402</v>
       </c>
-      <c r="G15">
-        <v>435</v>
-      </c>
-      <c r="H15">
-        <v>435</v>
-      </c>
-      <c r="I15">
-        <v>402</v>
-      </c>
-      <c r="J15">
-        <v>337</v>
-      </c>
-      <c r="K15">
-        <v>240</v>
-      </c>
-      <c r="L15">
-        <v>422</v>
-      </c>
-      <c r="M15">
-        <v>256</v>
-      </c>
-      <c r="N15">
+      <c r="AC15">
+        <v>233</v>
+      </c>
+      <c r="AD15">
+        <v>349</v>
+      </c>
+      <c r="AE15">
+        <v>273</v>
+      </c>
+      <c r="AF15">
+        <v>201</v>
+      </c>
+      <c r="AG15">
+        <v>198</v>
+      </c>
+      <c r="AH15">
         <v>187</v>
       </c>
-      <c r="O15">
-        <v>182</v>
-      </c>
-      <c r="P15">
-        <v>196</v>
-      </c>
-      <c r="Q15">
-        <v>174</v>
-      </c>
-      <c r="R15">
-        <v>193</v>
-      </c>
-      <c r="S15">
-        <v>202</v>
-      </c>
-      <c r="T15">
-        <v>173</v>
-      </c>
-      <c r="U15">
-        <v>179</v>
-      </c>
-      <c r="V15">
-        <v>167</v>
-      </c>
-      <c r="W15">
-        <v>192</v>
-      </c>
-      <c r="X15">
-        <v>204</v>
-      </c>
-      <c r="Y15">
-        <v>229</v>
-      </c>
-      <c r="Z15">
-        <v>240</v>
-      </c>
-      <c r="AA15">
-        <v>417</v>
-      </c>
-      <c r="AB15">
-        <v>417</v>
-      </c>
-      <c r="AC15">
-        <v>240</v>
-      </c>
-      <c r="AD15">
-        <v>353</v>
-      </c>
-      <c r="AE15">
-        <v>280</v>
-      </c>
-      <c r="AF15">
-        <v>209</v>
-      </c>
-      <c r="AG15">
-        <v>205</v>
-      </c>
-      <c r="AH15">
-        <v>196</v>
-      </c>
       <c r="AI15">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AJ15">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AK15">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AL15">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AM15">
         <v>8</v>
@@ -2288,115 +2288,115 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D16">
-        <v>788</v>
+        <v>759</v>
       </c>
       <c r="E16">
-        <v>1110</v>
+        <v>1064</v>
       </c>
       <c r="F16">
+        <v>1273</v>
+      </c>
+      <c r="G16">
+        <v>1361</v>
+      </c>
+      <c r="H16">
+        <v>1372</v>
+      </c>
+      <c r="I16">
+        <v>1295</v>
+      </c>
+      <c r="J16">
+        <v>1071</v>
+      </c>
+      <c r="K16">
+        <v>756</v>
+      </c>
+      <c r="L16">
+        <v>696</v>
+      </c>
+      <c r="M16">
+        <v>467</v>
+      </c>
+      <c r="N16">
+        <v>401</v>
+      </c>
+      <c r="O16">
+        <v>433</v>
+      </c>
+      <c r="P16">
+        <v>389</v>
+      </c>
+      <c r="Q16">
+        <v>441</v>
+      </c>
+      <c r="R16">
+        <v>392</v>
+      </c>
+      <c r="S16">
+        <v>344</v>
+      </c>
+      <c r="T16">
+        <v>424</v>
+      </c>
+      <c r="U16">
+        <v>380</v>
+      </c>
+      <c r="V16">
+        <v>424</v>
+      </c>
+      <c r="W16">
+        <v>439</v>
+      </c>
+      <c r="X16">
+        <v>447</v>
+      </c>
+      <c r="Y16">
+        <v>641</v>
+      </c>
+      <c r="Z16">
+        <v>754</v>
+      </c>
+      <c r="AA16">
         <v>1324</v>
       </c>
-      <c r="G16">
-        <v>1431</v>
-      </c>
-      <c r="H16">
-        <v>1431</v>
-      </c>
-      <c r="I16">
-        <v>1324</v>
-      </c>
-      <c r="J16">
-        <v>1110</v>
-      </c>
-      <c r="K16">
-        <v>788</v>
-      </c>
-      <c r="L16">
-        <v>1040</v>
-      </c>
-      <c r="M16">
-        <v>698</v>
-      </c>
-      <c r="N16">
-        <v>585</v>
-      </c>
-      <c r="O16">
-        <v>644</v>
-      </c>
-      <c r="P16">
-        <v>573</v>
-      </c>
-      <c r="Q16">
-        <v>658</v>
-      </c>
-      <c r="R16">
-        <v>570</v>
-      </c>
-      <c r="S16">
-        <v>511</v>
-      </c>
-      <c r="T16">
-        <v>637</v>
-      </c>
-      <c r="U16">
-        <v>564</v>
-      </c>
-      <c r="V16">
-        <v>634</v>
-      </c>
-      <c r="W16">
-        <v>652</v>
-      </c>
-      <c r="X16">
-        <v>665</v>
-      </c>
-      <c r="Y16">
-        <v>946</v>
-      </c>
-      <c r="Z16">
-        <v>788</v>
-      </c>
-      <c r="AA16">
-        <v>1372</v>
-      </c>
       <c r="AB16">
-        <v>1372</v>
+        <v>1331</v>
       </c>
       <c r="AC16">
-        <v>788</v>
+        <v>760</v>
       </c>
       <c r="AD16">
-        <v>1431</v>
+        <v>1362</v>
       </c>
       <c r="AE16">
-        <v>1034</v>
+        <v>1007</v>
       </c>
       <c r="AF16">
-        <v>790</v>
+        <v>763</v>
       </c>
       <c r="AG16">
-        <v>651</v>
+        <v>625</v>
       </c>
       <c r="AH16">
-        <v>557</v>
+        <v>530</v>
       </c>
       <c r="AI16">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="AJ16">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="AK16">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="AL16">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AM16">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:39">
@@ -2407,112 +2407,112 @@
         <v>2</v>
       </c>
       <c r="C17">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="E17">
-        <v>568</v>
+        <v>541</v>
       </c>
       <c r="F17">
-        <v>677</v>
+        <v>644</v>
       </c>
       <c r="G17">
-        <v>732</v>
+        <v>714</v>
       </c>
       <c r="H17">
-        <v>732</v>
+        <v>707</v>
       </c>
       <c r="I17">
-        <v>677</v>
+        <v>659</v>
       </c>
       <c r="J17">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="K17">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="L17">
-        <v>616</v>
+        <v>424</v>
       </c>
       <c r="M17">
-        <v>489</v>
+        <v>329</v>
       </c>
       <c r="N17">
-        <v>377</v>
+        <v>260</v>
       </c>
       <c r="O17">
-        <v>326</v>
+        <v>223</v>
       </c>
       <c r="P17">
-        <v>340</v>
+        <v>231</v>
       </c>
       <c r="Q17">
-        <v>265</v>
+        <v>179</v>
       </c>
       <c r="R17">
-        <v>329</v>
+        <v>226</v>
       </c>
       <c r="S17">
-        <v>312</v>
+        <v>213</v>
       </c>
       <c r="T17">
-        <v>290</v>
+        <v>193</v>
       </c>
       <c r="U17">
-        <v>265</v>
+        <v>177</v>
       </c>
       <c r="V17">
-        <v>273</v>
+        <v>186</v>
       </c>
       <c r="W17">
-        <v>277</v>
+        <v>187</v>
       </c>
       <c r="X17">
-        <v>338</v>
+        <v>229</v>
       </c>
       <c r="Y17">
-        <v>365</v>
+        <v>249</v>
       </c>
       <c r="Z17">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="AA17">
-        <v>702</v>
+        <v>678</v>
       </c>
       <c r="AB17">
-        <v>702</v>
+        <v>669</v>
       </c>
       <c r="AC17">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="AD17">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="AE17">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="AF17">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="AG17">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="AH17">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="AI17">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AJ17">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="AK17">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="AL17">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AM17">
         <v>10</v>
@@ -2529,112 +2529,112 @@
         <v>8</v>
       </c>
       <c r="D18">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E18">
+        <v>386</v>
+      </c>
+      <c r="F18">
+        <v>459</v>
+      </c>
+      <c r="G18">
+        <v>493</v>
+      </c>
+      <c r="H18">
+        <v>501</v>
+      </c>
+      <c r="I18">
+        <v>459</v>
+      </c>
+      <c r="J18">
+        <v>382</v>
+      </c>
+      <c r="K18">
+        <v>275</v>
+      </c>
+      <c r="L18">
+        <v>348</v>
+      </c>
+      <c r="M18">
+        <v>169</v>
+      </c>
+      <c r="N18">
+        <v>149</v>
+      </c>
+      <c r="O18">
+        <v>131</v>
+      </c>
+      <c r="P18">
+        <v>129</v>
+      </c>
+      <c r="Q18">
+        <v>124</v>
+      </c>
+      <c r="R18">
+        <v>131</v>
+      </c>
+      <c r="S18">
+        <v>135</v>
+      </c>
+      <c r="T18">
+        <v>123</v>
+      </c>
+      <c r="U18">
+        <v>110</v>
+      </c>
+      <c r="V18">
+        <v>140</v>
+      </c>
+      <c r="W18">
+        <v>126</v>
+      </c>
+      <c r="X18">
+        <v>173</v>
+      </c>
+      <c r="Y18">
+        <v>205</v>
+      </c>
+      <c r="Z18">
+        <v>276</v>
+      </c>
+      <c r="AA18">
+        <v>472</v>
+      </c>
+      <c r="AB18">
+        <v>480</v>
+      </c>
+      <c r="AC18">
+        <v>277</v>
+      </c>
+      <c r="AD18">
+        <v>494</v>
+      </c>
+      <c r="AE18">
         <v>399</v>
       </c>
-      <c r="F18">
-        <v>476</v>
-      </c>
-      <c r="G18">
-        <v>515</v>
-      </c>
-      <c r="H18">
-        <v>515</v>
-      </c>
-      <c r="I18">
-        <v>476</v>
-      </c>
-      <c r="J18">
-        <v>399</v>
-      </c>
-      <c r="K18">
-        <v>283</v>
-      </c>
-      <c r="L18">
-        <v>512</v>
-      </c>
-      <c r="M18">
-        <v>252</v>
-      </c>
-      <c r="N18">
-        <v>216</v>
-      </c>
-      <c r="O18">
-        <v>196</v>
-      </c>
-      <c r="P18">
-        <v>189</v>
-      </c>
-      <c r="Q18">
-        <v>186</v>
-      </c>
-      <c r="R18">
-        <v>190</v>
-      </c>
-      <c r="S18">
-        <v>201</v>
-      </c>
-      <c r="T18">
-        <v>184</v>
-      </c>
-      <c r="U18">
-        <v>162</v>
-      </c>
-      <c r="V18">
-        <v>212</v>
-      </c>
-      <c r="W18">
-        <v>188</v>
-      </c>
-      <c r="X18">
-        <v>262</v>
-      </c>
-      <c r="Y18">
-        <v>302</v>
-      </c>
-      <c r="Z18">
-        <v>283</v>
-      </c>
-      <c r="AA18">
-        <v>493</v>
-      </c>
-      <c r="AB18">
-        <v>493</v>
-      </c>
-      <c r="AC18">
-        <v>283</v>
-      </c>
-      <c r="AD18">
-        <v>515</v>
-      </c>
-      <c r="AE18">
-        <v>406</v>
-      </c>
       <c r="AF18">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="AG18">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="AH18">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="AI18">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AJ18">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AK18">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AL18">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AM18">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:39">
@@ -2645,115 +2645,115 @@
         <v>2</v>
       </c>
       <c r="C19">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19">
-        <v>484</v>
+        <v>463</v>
       </c>
       <c r="E19">
-        <v>681</v>
+        <v>655</v>
       </c>
       <c r="F19">
-        <v>813</v>
+        <v>796</v>
       </c>
       <c r="G19">
-        <v>879</v>
+        <v>844</v>
       </c>
       <c r="H19">
-        <v>879</v>
+        <v>854</v>
       </c>
       <c r="I19">
-        <v>813</v>
+        <v>783</v>
       </c>
       <c r="J19">
-        <v>681</v>
+        <v>647</v>
       </c>
       <c r="K19">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="L19">
-        <v>764</v>
+        <v>511</v>
       </c>
       <c r="M19">
-        <v>432</v>
+        <v>291</v>
       </c>
       <c r="N19">
-        <v>341</v>
+        <v>231</v>
       </c>
       <c r="O19">
-        <v>351</v>
+        <v>235</v>
       </c>
       <c r="P19">
-        <v>300</v>
+        <v>203</v>
       </c>
       <c r="Q19">
-        <v>362</v>
+        <v>245</v>
       </c>
       <c r="R19">
-        <v>312</v>
+        <v>214</v>
       </c>
       <c r="S19">
-        <v>365</v>
+        <v>242</v>
       </c>
       <c r="T19">
-        <v>350</v>
+        <v>232</v>
       </c>
       <c r="U19">
-        <v>345</v>
+        <v>233</v>
       </c>
       <c r="V19">
-        <v>288</v>
+        <v>195</v>
       </c>
       <c r="W19">
-        <v>320</v>
+        <v>215</v>
       </c>
       <c r="X19">
-        <v>409</v>
+        <v>272</v>
       </c>
       <c r="Y19">
-        <v>383</v>
+        <v>263</v>
       </c>
       <c r="Z19">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="AA19">
-        <v>842</v>
+        <v>818</v>
       </c>
       <c r="AB19">
-        <v>842</v>
+        <v>804</v>
       </c>
       <c r="AC19">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="AD19">
-        <v>879</v>
+        <v>835</v>
       </c>
       <c r="AE19">
-        <v>775</v>
+        <v>763</v>
       </c>
       <c r="AF19">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="AG19">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="AH19">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="AI19">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="AJ19">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="AK19">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="AL19">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AM19">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:39">
@@ -2767,112 +2767,112 @@
         <v>3</v>
       </c>
       <c r="D20">
-        <v>503</v>
+        <v>483</v>
       </c>
       <c r="E20">
-        <v>708</v>
+        <v>683</v>
       </c>
       <c r="F20">
-        <v>845</v>
+        <v>816</v>
       </c>
       <c r="G20">
-        <v>914</v>
+        <v>873</v>
       </c>
       <c r="H20">
-        <v>914</v>
+        <v>876</v>
       </c>
       <c r="I20">
-        <v>845</v>
+        <v>809</v>
       </c>
       <c r="J20">
-        <v>708</v>
+        <v>674</v>
       </c>
       <c r="K20">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="L20">
-        <v>435</v>
+        <v>293</v>
       </c>
       <c r="M20">
-        <v>239</v>
+        <v>164</v>
       </c>
       <c r="N20">
-        <v>183</v>
+        <v>126</v>
       </c>
       <c r="O20">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="P20">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="Q20">
-        <v>201</v>
+        <v>135</v>
       </c>
       <c r="R20">
+        <v>137</v>
+      </c>
+      <c r="S20">
+        <v>129</v>
+      </c>
+      <c r="T20">
+        <v>140</v>
+      </c>
+      <c r="U20">
+        <v>163</v>
+      </c>
+      <c r="V20">
+        <v>121</v>
+      </c>
+      <c r="W20">
+        <v>195</v>
+      </c>
+      <c r="X20">
         <v>202</v>
       </c>
-      <c r="S20">
-        <v>194</v>
-      </c>
-      <c r="T20">
-        <v>207</v>
-      </c>
-      <c r="U20">
-        <v>241</v>
-      </c>
-      <c r="V20">
-        <v>182</v>
-      </c>
-      <c r="W20">
-        <v>288</v>
-      </c>
-      <c r="X20">
-        <v>303</v>
-      </c>
       <c r="Y20">
-        <v>413</v>
+        <v>284</v>
       </c>
       <c r="Z20">
-        <v>503</v>
+        <v>480</v>
       </c>
       <c r="AA20">
-        <v>876</v>
+        <v>855</v>
       </c>
       <c r="AB20">
-        <v>876</v>
+        <v>840</v>
       </c>
       <c r="AC20">
-        <v>503</v>
+        <v>479</v>
       </c>
       <c r="AD20">
-        <v>914</v>
+        <v>884</v>
       </c>
       <c r="AE20">
-        <v>914</v>
+        <v>890</v>
       </c>
       <c r="AF20">
-        <v>909</v>
+        <v>866</v>
       </c>
       <c r="AG20">
-        <v>725</v>
+        <v>701</v>
       </c>
       <c r="AH20">
-        <v>724</v>
+        <v>696</v>
       </c>
       <c r="AI20">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="AJ20">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="AK20">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="AL20">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AM20">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:39">
@@ -2886,112 +2886,112 @@
         <v>4</v>
       </c>
       <c r="D21">
-        <v>1077</v>
+        <v>1026</v>
       </c>
       <c r="E21">
-        <v>1516</v>
+        <v>1465</v>
       </c>
       <c r="F21">
-        <v>1809</v>
+        <v>1768</v>
       </c>
       <c r="G21">
-        <v>1956</v>
+        <v>1877</v>
       </c>
       <c r="H21">
-        <v>1956</v>
+        <v>1898</v>
       </c>
       <c r="I21">
-        <v>1809</v>
+        <v>1739</v>
       </c>
       <c r="J21">
-        <v>1516</v>
+        <v>1456</v>
       </c>
       <c r="K21">
-        <v>1077</v>
+        <v>1032</v>
       </c>
       <c r="L21">
-        <v>622</v>
+        <v>423</v>
       </c>
       <c r="M21">
-        <v>418</v>
+        <v>286</v>
       </c>
       <c r="N21">
-        <v>391</v>
+        <v>264</v>
       </c>
       <c r="O21">
-        <v>406</v>
+        <v>275</v>
       </c>
       <c r="P21">
-        <v>375</v>
+        <v>257</v>
       </c>
       <c r="Q21">
-        <v>435</v>
+        <v>294</v>
       </c>
       <c r="R21">
-        <v>332</v>
+        <v>225</v>
       </c>
       <c r="S21">
-        <v>468</v>
+        <v>319</v>
       </c>
       <c r="T21">
-        <v>454</v>
+        <v>309</v>
       </c>
       <c r="U21">
-        <v>416</v>
+        <v>282</v>
       </c>
       <c r="V21">
-        <v>428</v>
+        <v>289</v>
       </c>
       <c r="W21">
-        <v>490</v>
+        <v>326</v>
       </c>
       <c r="X21">
-        <v>664</v>
+        <v>448</v>
       </c>
       <c r="Y21">
-        <v>788</v>
+        <v>543</v>
       </c>
       <c r="Z21">
-        <v>1077</v>
+        <v>1029</v>
       </c>
       <c r="AA21">
-        <v>1874</v>
+        <v>1787</v>
       </c>
       <c r="AB21">
-        <v>1874</v>
+        <v>1810</v>
       </c>
       <c r="AC21">
-        <v>1077</v>
+        <v>1040</v>
       </c>
       <c r="AD21">
-        <v>1956</v>
+        <v>1894</v>
       </c>
       <c r="AE21">
-        <v>1956</v>
+        <v>1913</v>
       </c>
       <c r="AF21">
-        <v>1825</v>
+        <v>1765</v>
       </c>
       <c r="AG21">
-        <v>1765</v>
+        <v>1719</v>
       </c>
       <c r="AH21">
-        <v>1388</v>
+        <v>1330</v>
       </c>
       <c r="AI21">
-        <v>1356</v>
+        <v>1331</v>
       </c>
       <c r="AJ21">
-        <v>1005</v>
+        <v>970</v>
       </c>
       <c r="AK21">
-        <v>544</v>
+        <v>519</v>
       </c>
       <c r="AL21">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="AM21">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:39">
@@ -3005,112 +3005,112 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="E22">
-        <v>775</v>
+        <v>756</v>
       </c>
       <c r="F22">
-        <v>925</v>
+        <v>893</v>
       </c>
       <c r="G22">
-        <v>1000</v>
+        <v>979</v>
       </c>
       <c r="H22">
-        <v>1000</v>
+        <v>967</v>
       </c>
       <c r="I22">
-        <v>925</v>
+        <v>902</v>
       </c>
       <c r="J22">
-        <v>775</v>
+        <v>751</v>
       </c>
       <c r="K22">
-        <v>550</v>
+        <v>528</v>
       </c>
       <c r="L22">
-        <v>227</v>
+        <v>152</v>
       </c>
       <c r="M22">
-        <v>167</v>
+        <v>113</v>
       </c>
       <c r="N22">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="O22">
-        <v>174</v>
+        <v>117</v>
       </c>
       <c r="P22">
-        <v>182</v>
+        <v>124</v>
       </c>
       <c r="Q22">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c r="R22">
-        <v>200</v>
+        <v>137</v>
       </c>
       <c r="S22">
-        <v>218</v>
+        <v>145</v>
       </c>
       <c r="T22">
-        <v>201</v>
+        <v>136</v>
       </c>
       <c r="U22">
-        <v>200</v>
+        <v>137</v>
       </c>
       <c r="V22">
-        <v>209</v>
+        <v>140</v>
       </c>
       <c r="W22">
-        <v>281</v>
+        <v>191</v>
       </c>
       <c r="X22">
-        <v>306</v>
+        <v>206</v>
       </c>
       <c r="Y22">
-        <v>387</v>
+        <v>266</v>
       </c>
       <c r="Z22">
-        <v>550</v>
+        <v>531</v>
       </c>
       <c r="AA22">
-        <v>958</v>
+        <v>920</v>
       </c>
       <c r="AB22">
-        <v>958</v>
+        <v>931</v>
       </c>
       <c r="AC22">
-        <v>550</v>
+        <v>528</v>
       </c>
       <c r="AD22">
-        <v>1000</v>
+        <v>974</v>
       </c>
       <c r="AE22">
-        <v>1000</v>
+        <v>957</v>
       </c>
       <c r="AF22">
-        <v>1000</v>
+        <v>963</v>
       </c>
       <c r="AG22">
-        <v>863</v>
+        <v>839</v>
       </c>
       <c r="AH22">
-        <v>734</v>
+        <v>708</v>
       </c>
       <c r="AI22">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="AJ22">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="AK22">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="AL22">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AM22">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:39">
@@ -3124,112 +3124,112 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <v>1476</v>
+        <v>1438</v>
       </c>
       <c r="E23">
-        <v>2079</v>
+        <v>2030</v>
       </c>
       <c r="F23">
-        <v>2480</v>
+        <v>2386</v>
       </c>
       <c r="G23">
-        <v>2681</v>
+        <v>2581</v>
       </c>
       <c r="H23">
-        <v>2681</v>
+        <v>2619</v>
       </c>
       <c r="I23">
-        <v>2480</v>
+        <v>2408</v>
       </c>
       <c r="J23">
-        <v>2079</v>
+        <v>2019</v>
       </c>
       <c r="K23">
-        <v>1476</v>
+        <v>1432</v>
       </c>
       <c r="L23">
-        <v>361</v>
+        <v>242</v>
       </c>
       <c r="M23">
-        <v>349</v>
+        <v>237</v>
       </c>
       <c r="N23">
-        <v>298</v>
+        <v>206</v>
       </c>
       <c r="O23">
-        <v>344</v>
+        <v>236</v>
       </c>
       <c r="P23">
-        <v>363</v>
+        <v>243</v>
       </c>
       <c r="Q23">
-        <v>391</v>
+        <v>259</v>
       </c>
       <c r="R23">
-        <v>338</v>
+        <v>229</v>
       </c>
       <c r="S23">
-        <v>356</v>
+        <v>238</v>
       </c>
       <c r="T23">
-        <v>412</v>
+        <v>274</v>
       </c>
       <c r="U23">
-        <v>400</v>
+        <v>269</v>
       </c>
       <c r="V23">
-        <v>481</v>
+        <v>323</v>
       </c>
       <c r="W23">
-        <v>500</v>
+        <v>336</v>
       </c>
       <c r="X23">
-        <v>771</v>
+        <v>512</v>
       </c>
       <c r="Y23">
-        <v>916</v>
+        <v>625</v>
       </c>
       <c r="Z23">
-        <v>1476</v>
+        <v>1431</v>
       </c>
       <c r="AA23">
-        <v>2570</v>
+        <v>2495</v>
       </c>
       <c r="AB23">
-        <v>2570</v>
+        <v>2482</v>
       </c>
       <c r="AC23">
-        <v>1476</v>
+        <v>1425</v>
       </c>
       <c r="AD23">
-        <v>2681</v>
+        <v>2611</v>
       </c>
       <c r="AE23">
-        <v>2681</v>
+        <v>2588</v>
       </c>
       <c r="AF23">
-        <v>2681</v>
+        <v>2592</v>
       </c>
       <c r="AG23">
-        <v>2562</v>
+        <v>2449</v>
       </c>
       <c r="AH23">
-        <v>2033</v>
+        <v>1929</v>
       </c>
       <c r="AI23">
-        <v>1925</v>
+        <v>1913</v>
       </c>
       <c r="AJ23">
-        <v>1823</v>
+        <v>1808</v>
       </c>
       <c r="AK23">
-        <v>1411</v>
+        <v>1345</v>
       </c>
       <c r="AL23">
-        <v>659</v>
+        <v>628</v>
       </c>
       <c r="AM23">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:39">
@@ -3243,112 +3243,112 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1406</v>
+        <v>1365</v>
       </c>
       <c r="E24">
-        <v>1980</v>
+        <v>1885</v>
       </c>
       <c r="F24">
-        <v>2363</v>
+        <v>2247</v>
       </c>
       <c r="G24">
-        <v>2554</v>
+        <v>2502</v>
       </c>
       <c r="H24">
-        <v>2554</v>
+        <v>2428</v>
       </c>
       <c r="I24">
-        <v>2363</v>
+        <v>2267</v>
       </c>
       <c r="J24">
-        <v>1980</v>
+        <v>1911</v>
       </c>
       <c r="K24">
-        <v>1406</v>
+        <v>1372</v>
       </c>
       <c r="L24">
-        <v>380</v>
+        <v>259</v>
       </c>
       <c r="M24">
-        <v>392</v>
+        <v>261</v>
       </c>
       <c r="N24">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="O24">
-        <v>319</v>
+        <v>215</v>
       </c>
       <c r="P24">
-        <v>395</v>
+        <v>265</v>
       </c>
       <c r="Q24">
-        <v>370</v>
+        <v>252</v>
       </c>
       <c r="R24">
-        <v>448</v>
+        <v>307</v>
       </c>
       <c r="S24">
-        <v>388</v>
+        <v>260</v>
       </c>
       <c r="T24">
-        <v>410</v>
+        <v>276</v>
       </c>
       <c r="U24">
-        <v>506</v>
+        <v>337</v>
       </c>
       <c r="V24">
-        <v>527</v>
+        <v>350</v>
       </c>
       <c r="W24">
-        <v>700</v>
+        <v>477</v>
       </c>
       <c r="X24">
-        <v>790</v>
+        <v>529</v>
       </c>
       <c r="Y24">
-        <v>1034</v>
+        <v>713</v>
       </c>
       <c r="Z24">
-        <v>1406</v>
+        <v>1348</v>
       </c>
       <c r="AA24">
+        <v>2360</v>
+      </c>
+      <c r="AB24">
+        <v>2374</v>
+      </c>
+      <c r="AC24">
+        <v>1346</v>
+      </c>
+      <c r="AD24">
         <v>2448</v>
       </c>
-      <c r="AB24">
-        <v>2448</v>
-      </c>
-      <c r="AC24">
-        <v>1406</v>
-      </c>
-      <c r="AD24">
-        <v>2554</v>
-      </c>
       <c r="AE24">
-        <v>2554</v>
+        <v>2459</v>
       </c>
       <c r="AF24">
-        <v>2554</v>
+        <v>2430</v>
       </c>
       <c r="AG24">
-        <v>2254</v>
+        <v>2171</v>
       </c>
       <c r="AH24">
-        <v>1697</v>
+        <v>1601</v>
       </c>
       <c r="AI24">
-        <v>1614</v>
+        <v>1602</v>
       </c>
       <c r="AJ24">
-        <v>1518</v>
+        <v>1468</v>
       </c>
       <c r="AK24">
-        <v>1022</v>
+        <v>1002</v>
       </c>
       <c r="AL24">
-        <v>659</v>
+        <v>634</v>
       </c>
       <c r="AM24">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3491,115 +3491,115 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D2">
-        <v>2088</v>
+        <v>2045</v>
       </c>
       <c r="E2">
-        <v>2940</v>
+        <v>2819</v>
       </c>
       <c r="F2">
-        <v>3508</v>
+        <v>3398</v>
       </c>
       <c r="G2">
-        <v>3792</v>
+        <v>3616</v>
       </c>
       <c r="H2">
-        <v>3792</v>
+        <v>3615</v>
       </c>
       <c r="I2">
-        <v>3508</v>
+        <v>3370</v>
       </c>
       <c r="J2">
-        <v>2940</v>
+        <v>2845</v>
       </c>
       <c r="K2">
-        <v>2088</v>
+        <v>2000</v>
       </c>
       <c r="L2">
-        <v>1131</v>
+        <v>769</v>
       </c>
       <c r="M2">
-        <v>1176</v>
+        <v>798</v>
       </c>
       <c r="N2">
-        <v>1274</v>
+        <v>868</v>
       </c>
       <c r="O2">
-        <v>1146</v>
+        <v>772</v>
       </c>
       <c r="P2">
-        <v>1354</v>
+        <v>907</v>
       </c>
       <c r="Q2">
-        <v>1250</v>
+        <v>836</v>
       </c>
       <c r="R2">
-        <v>1272</v>
+        <v>857</v>
       </c>
       <c r="S2">
-        <v>983</v>
+        <v>665</v>
       </c>
       <c r="T2">
-        <v>1201</v>
+        <v>803</v>
       </c>
       <c r="U2">
-        <v>1412</v>
+        <v>967</v>
       </c>
       <c r="V2">
-        <v>1296</v>
+        <v>879</v>
       </c>
       <c r="W2">
-        <v>1554</v>
+        <v>1055</v>
       </c>
       <c r="X2">
-        <v>2033</v>
+        <v>1370</v>
       </c>
       <c r="Y2">
-        <v>2459</v>
+        <v>1670</v>
       </c>
       <c r="Z2">
-        <v>2088</v>
+        <v>2023</v>
       </c>
       <c r="AA2">
-        <v>3634</v>
+        <v>3468</v>
       </c>
       <c r="AB2">
-        <v>3634</v>
+        <v>3547</v>
       </c>
       <c r="AC2">
-        <v>2088</v>
+        <v>2026</v>
       </c>
       <c r="AD2">
-        <v>3792</v>
+        <v>3633</v>
       </c>
       <c r="AE2">
-        <v>3553</v>
+        <v>3342</v>
       </c>
       <c r="AF2">
-        <v>2974</v>
+        <v>2883</v>
       </c>
       <c r="AG2">
-        <v>2364</v>
+        <v>2324</v>
       </c>
       <c r="AH2">
-        <v>2351</v>
+        <v>2255</v>
       </c>
       <c r="AI2">
-        <v>1541</v>
+        <v>1463</v>
       </c>
       <c r="AJ2">
-        <v>1422</v>
+        <v>1380</v>
       </c>
       <c r="AK2">
-        <v>1213</v>
+        <v>1155</v>
       </c>
       <c r="AL2">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="AM2">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:39">
@@ -3610,112 +3610,112 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="E3">
-        <v>698</v>
+        <v>668</v>
       </c>
       <c r="F3">
-        <v>833</v>
+        <v>798</v>
       </c>
       <c r="G3">
-        <v>900</v>
+        <v>875</v>
       </c>
       <c r="H3">
-        <v>900</v>
+        <v>860</v>
       </c>
       <c r="I3">
-        <v>833</v>
+        <v>816</v>
       </c>
       <c r="J3">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="K3">
-        <v>496</v>
+        <v>476</v>
       </c>
       <c r="L3">
-        <v>302</v>
+        <v>206</v>
       </c>
       <c r="M3">
-        <v>287</v>
+        <v>191</v>
       </c>
       <c r="N3">
-        <v>265</v>
+        <v>179</v>
       </c>
       <c r="O3">
-        <v>208</v>
+        <v>140</v>
       </c>
       <c r="P3">
-        <v>267</v>
+        <v>177</v>
       </c>
       <c r="Q3">
-        <v>250</v>
+        <v>167</v>
       </c>
       <c r="R3">
-        <v>199</v>
+        <v>134</v>
       </c>
       <c r="S3">
-        <v>256</v>
+        <v>172</v>
       </c>
       <c r="T3">
-        <v>217</v>
+        <v>145</v>
       </c>
       <c r="U3">
+        <v>185</v>
+      </c>
+      <c r="V3">
+        <v>176</v>
+      </c>
+      <c r="W3">
+        <v>210</v>
+      </c>
+      <c r="X3">
+        <v>284</v>
+      </c>
+      <c r="Y3">
+        <v>346</v>
+      </c>
+      <c r="Z3">
+        <v>473</v>
+      </c>
+      <c r="AA3">
+        <v>835</v>
+      </c>
+      <c r="AB3">
+        <v>842</v>
+      </c>
+      <c r="AC3">
+        <v>483</v>
+      </c>
+      <c r="AD3">
+        <v>865</v>
+      </c>
+      <c r="AE3">
+        <v>861</v>
+      </c>
+      <c r="AF3">
+        <v>713</v>
+      </c>
+      <c r="AG3">
+        <v>661</v>
+      </c>
+      <c r="AH3">
+        <v>507</v>
+      </c>
+      <c r="AI3">
+        <v>544</v>
+      </c>
+      <c r="AJ3">
+        <v>416</v>
+      </c>
+      <c r="AK3">
         <v>270</v>
       </c>
-      <c r="V3">
-        <v>254</v>
-      </c>
-      <c r="W3">
-        <v>305</v>
-      </c>
-      <c r="X3">
-        <v>418</v>
-      </c>
-      <c r="Y3">
-        <v>510</v>
-      </c>
-      <c r="Z3">
-        <v>496</v>
-      </c>
-      <c r="AA3">
-        <v>863</v>
-      </c>
-      <c r="AB3">
-        <v>863</v>
-      </c>
-      <c r="AC3">
-        <v>496</v>
-      </c>
-      <c r="AD3">
-        <v>900</v>
-      </c>
-      <c r="AE3">
-        <v>900</v>
-      </c>
-      <c r="AF3">
-        <v>746</v>
-      </c>
-      <c r="AG3">
-        <v>673</v>
-      </c>
-      <c r="AH3">
-        <v>523</v>
-      </c>
-      <c r="AI3">
-        <v>567</v>
-      </c>
-      <c r="AJ3">
-        <v>430</v>
-      </c>
-      <c r="AK3">
-        <v>277</v>
-      </c>
       <c r="AL3">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AM3">
         <v>16</v>
@@ -3732,109 +3732,109 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="E4">
-        <v>535</v>
+        <v>510</v>
       </c>
       <c r="F4">
-        <v>639</v>
+        <v>617</v>
       </c>
       <c r="G4">
-        <v>690</v>
+        <v>670</v>
       </c>
       <c r="H4">
-        <v>690</v>
+        <v>670</v>
       </c>
       <c r="I4">
-        <v>639</v>
+        <v>617</v>
       </c>
       <c r="J4">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="K4">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="L4">
-        <v>194</v>
+        <v>131</v>
       </c>
       <c r="M4">
-        <v>205</v>
+        <v>140</v>
       </c>
       <c r="N4">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="O4">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="P4">
-        <v>207</v>
+        <v>139</v>
       </c>
       <c r="Q4">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c r="R4">
-        <v>177</v>
+        <v>117</v>
       </c>
       <c r="S4">
+        <v>126</v>
+      </c>
+      <c r="T4">
+        <v>124</v>
+      </c>
+      <c r="U4">
+        <v>130</v>
+      </c>
+      <c r="V4">
+        <v>146</v>
+      </c>
+      <c r="W4">
         <v>189</v>
       </c>
-      <c r="T4">
-        <v>182</v>
-      </c>
-      <c r="U4">
-        <v>189</v>
-      </c>
-      <c r="V4">
-        <v>210</v>
-      </c>
-      <c r="W4">
-        <v>280</v>
-      </c>
       <c r="X4">
-        <v>373</v>
+        <v>253</v>
       </c>
       <c r="Y4">
-        <v>447</v>
+        <v>303</v>
       </c>
       <c r="Z4">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="AA4">
-        <v>662</v>
+        <v>636</v>
       </c>
       <c r="AB4">
-        <v>662</v>
+        <v>642</v>
       </c>
       <c r="AC4">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="AD4">
-        <v>690</v>
+        <v>660</v>
       </c>
       <c r="AE4">
-        <v>690</v>
+        <v>661</v>
       </c>
       <c r="AF4">
-        <v>566</v>
+        <v>539</v>
       </c>
       <c r="AG4">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="AH4">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="AI4">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="AJ4">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="AK4">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="AL4">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="AM4">
         <v>26</v>
@@ -3848,115 +3848,115 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="E5">
-        <v>478</v>
+        <v>456</v>
       </c>
       <c r="F5">
+        <v>551</v>
+      </c>
+      <c r="G5">
+        <v>598</v>
+      </c>
+      <c r="H5">
+        <v>589</v>
+      </c>
+      <c r="I5">
+        <v>551</v>
+      </c>
+      <c r="J5">
+        <v>465</v>
+      </c>
+      <c r="K5">
+        <v>332</v>
+      </c>
+      <c r="L5">
+        <v>402</v>
+      </c>
+      <c r="M5">
+        <v>398</v>
+      </c>
+      <c r="N5">
+        <v>335</v>
+      </c>
+      <c r="O5">
+        <v>257</v>
+      </c>
+      <c r="P5">
+        <v>255</v>
+      </c>
+      <c r="Q5">
+        <v>214</v>
+      </c>
+      <c r="R5">
+        <v>188</v>
+      </c>
+      <c r="S5">
+        <v>236</v>
+      </c>
+      <c r="T5">
+        <v>256</v>
+      </c>
+      <c r="U5">
+        <v>219</v>
+      </c>
+      <c r="V5">
+        <v>197</v>
+      </c>
+      <c r="W5">
+        <v>216</v>
+      </c>
+      <c r="X5">
+        <v>168</v>
+      </c>
+      <c r="Y5">
+        <v>168</v>
+      </c>
+      <c r="Z5">
+        <v>326</v>
+      </c>
+      <c r="AA5">
         <v>571</v>
       </c>
-      <c r="G5">
-        <v>617</v>
-      </c>
-      <c r="H5">
-        <v>617</v>
-      </c>
-      <c r="I5">
-        <v>571</v>
-      </c>
-      <c r="J5">
-        <v>478</v>
-      </c>
-      <c r="K5">
-        <v>340</v>
-      </c>
-      <c r="L5">
-        <v>608</v>
-      </c>
-      <c r="M5">
-        <v>581</v>
-      </c>
-      <c r="N5">
-        <v>495</v>
-      </c>
-      <c r="O5">
-        <v>380</v>
-      </c>
-      <c r="P5">
-        <v>375</v>
-      </c>
-      <c r="Q5">
-        <v>320</v>
-      </c>
-      <c r="R5">
-        <v>281</v>
-      </c>
-      <c r="S5">
-        <v>345</v>
-      </c>
-      <c r="T5">
-        <v>387</v>
-      </c>
-      <c r="U5">
-        <v>320</v>
-      </c>
-      <c r="V5">
-        <v>288</v>
-      </c>
-      <c r="W5">
-        <v>316</v>
-      </c>
-      <c r="X5">
-        <v>249</v>
-      </c>
-      <c r="Y5">
-        <v>254</v>
-      </c>
-      <c r="Z5">
-        <v>340</v>
-      </c>
-      <c r="AA5">
-        <v>591</v>
-      </c>
       <c r="AB5">
-        <v>591</v>
+        <v>564</v>
       </c>
       <c r="AC5">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="AD5">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="AE5">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="AF5">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="AG5">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AH5">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AI5">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="AJ5">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AK5">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AL5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AM5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:39">
@@ -3970,109 +3970,109 @@
         <v>9</v>
       </c>
       <c r="D6">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E6">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F6">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G6">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="H6">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="I6">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="J6">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="K6">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="L6">
-        <v>254</v>
+        <v>173</v>
       </c>
       <c r="M6">
-        <v>211</v>
+        <v>142</v>
       </c>
       <c r="N6">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="O6">
-        <v>168</v>
+        <v>113</v>
       </c>
       <c r="P6">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="Q6">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="R6">
-        <v>176</v>
+        <v>116</v>
       </c>
       <c r="S6">
-        <v>163</v>
+        <v>109</v>
       </c>
       <c r="T6">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="U6">
+        <v>101</v>
+      </c>
+      <c r="V6">
+        <v>105</v>
+      </c>
+      <c r="W6">
+        <v>105</v>
+      </c>
+      <c r="X6">
+        <v>106</v>
+      </c>
+      <c r="Y6">
+        <v>110</v>
+      </c>
+      <c r="Z6">
         <v>151</v>
       </c>
-      <c r="V6">
-        <v>153</v>
-      </c>
-      <c r="W6">
-        <v>155</v>
-      </c>
-      <c r="X6">
-        <v>158</v>
-      </c>
-      <c r="Y6">
-        <v>161</v>
-      </c>
-      <c r="Z6">
-        <v>158</v>
-      </c>
       <c r="AA6">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="AB6">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="AC6">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="AD6">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="AE6">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AF6">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AG6">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AH6">
+        <v>59</v>
+      </c>
+      <c r="AI6">
         <v>62</v>
       </c>
-      <c r="AI6">
-        <v>65</v>
-      </c>
       <c r="AJ6">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AK6">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AL6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AM6">
         <v>1</v>
@@ -4086,112 +4086,112 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D7">
-        <v>724</v>
+        <v>691</v>
       </c>
       <c r="E7">
-        <v>1020</v>
+        <v>972</v>
       </c>
       <c r="F7">
-        <v>1217</v>
+        <v>1175</v>
       </c>
       <c r="G7">
-        <v>1316</v>
+        <v>1288</v>
       </c>
       <c r="H7">
-        <v>1316</v>
+        <v>1280</v>
       </c>
       <c r="I7">
-        <v>1217</v>
+        <v>1191</v>
       </c>
       <c r="J7">
-        <v>1020</v>
+        <v>976</v>
       </c>
       <c r="K7">
-        <v>724</v>
+        <v>688</v>
       </c>
       <c r="L7">
-        <v>1091</v>
+        <v>737</v>
       </c>
       <c r="M7">
-        <v>883</v>
+        <v>600</v>
       </c>
       <c r="N7">
-        <v>787</v>
+        <v>540</v>
       </c>
       <c r="O7">
-        <v>750</v>
+        <v>512</v>
       </c>
       <c r="P7">
-        <v>748</v>
+        <v>498</v>
       </c>
       <c r="Q7">
-        <v>840</v>
+        <v>570</v>
       </c>
       <c r="R7">
-        <v>773</v>
+        <v>512</v>
       </c>
       <c r="S7">
-        <v>738</v>
+        <v>496</v>
       </c>
       <c r="T7">
-        <v>779</v>
+        <v>531</v>
       </c>
       <c r="U7">
-        <v>721</v>
+        <v>484</v>
       </c>
       <c r="V7">
-        <v>664</v>
+        <v>458</v>
       </c>
       <c r="W7">
-        <v>636</v>
+        <v>438</v>
       </c>
       <c r="X7">
-        <v>715</v>
+        <v>475</v>
       </c>
       <c r="Y7">
-        <v>739</v>
+        <v>501</v>
       </c>
       <c r="Z7">
-        <v>724</v>
+        <v>709</v>
       </c>
       <c r="AA7">
-        <v>1261</v>
+        <v>1225</v>
       </c>
       <c r="AB7">
-        <v>1261</v>
+        <v>1198</v>
       </c>
       <c r="AC7">
-        <v>724</v>
+        <v>695</v>
       </c>
       <c r="AD7">
-        <v>855</v>
+        <v>843</v>
       </c>
       <c r="AE7">
-        <v>570</v>
+        <v>547</v>
       </c>
       <c r="AF7">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="AG7">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="AH7">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="AI7">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="AJ7">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="AK7">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AL7">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AM7">
         <v>2</v>
@@ -4205,112 +4205,112 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D8">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="E8">
-        <v>1174</v>
+        <v>1130</v>
       </c>
       <c r="F8">
-        <v>1401</v>
+        <v>1369</v>
       </c>
       <c r="G8">
-        <v>1514</v>
+        <v>1470</v>
       </c>
       <c r="H8">
-        <v>1514</v>
+        <v>1483</v>
       </c>
       <c r="I8">
-        <v>1401</v>
+        <v>1343</v>
       </c>
       <c r="J8">
-        <v>1174</v>
+        <v>1147</v>
       </c>
       <c r="K8">
-        <v>834</v>
+        <v>814</v>
       </c>
       <c r="L8">
-        <v>1514</v>
+        <v>1009</v>
       </c>
       <c r="M8">
-        <v>1040</v>
+        <v>712</v>
       </c>
       <c r="N8">
-        <v>806</v>
+        <v>546</v>
       </c>
       <c r="O8">
-        <v>856</v>
+        <v>574</v>
       </c>
       <c r="P8">
-        <v>632</v>
+        <v>420</v>
       </c>
       <c r="Q8">
-        <v>843</v>
+        <v>569</v>
       </c>
       <c r="R8">
-        <v>846</v>
+        <v>571</v>
       </c>
       <c r="S8">
-        <v>809</v>
+        <v>549</v>
       </c>
       <c r="T8">
-        <v>782</v>
+        <v>521</v>
       </c>
       <c r="U8">
-        <v>716</v>
+        <v>486</v>
       </c>
       <c r="V8">
-        <v>701</v>
+        <v>481</v>
       </c>
       <c r="W8">
-        <v>769</v>
+        <v>520</v>
       </c>
       <c r="X8">
-        <v>766</v>
+        <v>520</v>
       </c>
       <c r="Y8">
-        <v>691</v>
+        <v>461</v>
       </c>
       <c r="Z8">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="AA8">
-        <v>1451</v>
+        <v>1404</v>
       </c>
       <c r="AB8">
-        <v>1451</v>
+        <v>1396</v>
       </c>
       <c r="AC8">
-        <v>834</v>
+        <v>815</v>
       </c>
       <c r="AD8">
-        <v>1163</v>
+        <v>1132</v>
       </c>
       <c r="AE8">
-        <v>778</v>
+        <v>744</v>
       </c>
       <c r="AF8">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="AG8">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="AH8">
-        <v>555</v>
+        <v>533</v>
       </c>
       <c r="AI8">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="AJ8">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="AK8">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="AL8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AM8">
         <v>7</v>
@@ -4324,109 +4324,109 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D9">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="E9">
-        <v>497</v>
+        <v>474</v>
       </c>
       <c r="F9">
-        <v>593</v>
+        <v>565</v>
       </c>
       <c r="G9">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="H9">
-        <v>641</v>
+        <v>624</v>
       </c>
       <c r="I9">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="J9">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="K9">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="L9">
-        <v>641</v>
+        <v>437</v>
       </c>
       <c r="M9">
-        <v>641</v>
+        <v>428</v>
       </c>
       <c r="N9">
-        <v>437</v>
+        <v>296</v>
       </c>
       <c r="O9">
-        <v>362</v>
+        <v>248</v>
       </c>
       <c r="P9">
-        <v>401</v>
+        <v>273</v>
       </c>
       <c r="Q9">
-        <v>465</v>
+        <v>311</v>
       </c>
       <c r="R9">
-        <v>436</v>
+        <v>293</v>
       </c>
       <c r="S9">
-        <v>376</v>
+        <v>252</v>
       </c>
       <c r="T9">
-        <v>361</v>
+        <v>240</v>
       </c>
       <c r="U9">
+        <v>226</v>
+      </c>
+      <c r="V9">
+        <v>198</v>
+      </c>
+      <c r="W9">
+        <v>202</v>
+      </c>
+      <c r="X9">
+        <v>193</v>
+      </c>
+      <c r="Y9">
+        <v>190</v>
+      </c>
+      <c r="Z9">
+        <v>340</v>
+      </c>
+      <c r="AA9">
+        <v>588</v>
+      </c>
+      <c r="AB9">
+        <v>595</v>
+      </c>
+      <c r="AC9">
         <v>338</v>
       </c>
-      <c r="V9">
-        <v>287</v>
-      </c>
-      <c r="W9">
-        <v>291</v>
-      </c>
-      <c r="X9">
-        <v>287</v>
-      </c>
-      <c r="Y9">
-        <v>282</v>
-      </c>
-      <c r="Z9">
-        <v>353</v>
-      </c>
-      <c r="AA9">
-        <v>614</v>
-      </c>
-      <c r="AB9">
-        <v>614</v>
-      </c>
-      <c r="AC9">
-        <v>353</v>
-      </c>
       <c r="AD9">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="AE9">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="AF9">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AG9">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AH9">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="AI9">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AJ9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AL9">
         <v>32</v>
@@ -4446,109 +4446,109 @@
         <v>11</v>
       </c>
       <c r="D10">
+        <v>142</v>
+      </c>
+      <c r="E10">
+        <v>195</v>
+      </c>
+      <c r="F10">
+        <v>237</v>
+      </c>
+      <c r="G10">
+        <v>255</v>
+      </c>
+      <c r="H10">
+        <v>253</v>
+      </c>
+      <c r="I10">
+        <v>240</v>
+      </c>
+      <c r="J10">
+        <v>196</v>
+      </c>
+      <c r="K10">
+        <v>142</v>
+      </c>
+      <c r="L10">
+        <v>167</v>
+      </c>
+      <c r="M10">
+        <v>106</v>
+      </c>
+      <c r="N10">
+        <v>112</v>
+      </c>
+      <c r="O10">
+        <v>94</v>
+      </c>
+      <c r="P10">
+        <v>72</v>
+      </c>
+      <c r="Q10">
+        <v>100</v>
+      </c>
+      <c r="R10">
+        <v>99</v>
+      </c>
+      <c r="S10">
+        <v>120</v>
+      </c>
+      <c r="T10">
+        <v>100</v>
+      </c>
+      <c r="U10">
+        <v>100</v>
+      </c>
+      <c r="V10">
+        <v>95</v>
+      </c>
+      <c r="W10">
+        <v>85</v>
+      </c>
+      <c r="X10">
+        <v>82</v>
+      </c>
+      <c r="Y10">
+        <v>104</v>
+      </c>
+      <c r="Z10">
+        <v>142</v>
+      </c>
+      <c r="AA10">
+        <v>244</v>
+      </c>
+      <c r="AB10">
+        <v>248</v>
+      </c>
+      <c r="AC10">
+        <v>143</v>
+      </c>
+      <c r="AD10">
         <v>146</v>
       </c>
-      <c r="E10">
-        <v>205</v>
-      </c>
-      <c r="F10">
-        <v>245</v>
-      </c>
-      <c r="G10">
-        <v>265</v>
-      </c>
-      <c r="H10">
-        <v>265</v>
-      </c>
-      <c r="I10">
-        <v>245</v>
-      </c>
-      <c r="J10">
-        <v>205</v>
-      </c>
-      <c r="K10">
-        <v>146</v>
-      </c>
-      <c r="L10">
-        <v>248</v>
-      </c>
-      <c r="M10">
-        <v>158</v>
-      </c>
-      <c r="N10">
-        <v>165</v>
-      </c>
-      <c r="O10">
-        <v>138</v>
-      </c>
-      <c r="P10">
-        <v>107</v>
-      </c>
-      <c r="Q10">
-        <v>150</v>
-      </c>
-      <c r="R10">
-        <v>149</v>
-      </c>
-      <c r="S10">
-        <v>175</v>
-      </c>
-      <c r="T10">
-        <v>148</v>
-      </c>
-      <c r="U10">
-        <v>149</v>
-      </c>
-      <c r="V10">
-        <v>140</v>
-      </c>
-      <c r="W10">
-        <v>124</v>
-      </c>
-      <c r="X10">
-        <v>120</v>
-      </c>
-      <c r="Y10">
-        <v>156</v>
-      </c>
-      <c r="Z10">
-        <v>146</v>
-      </c>
-      <c r="AA10">
-        <v>254</v>
-      </c>
-      <c r="AB10">
-        <v>254</v>
-      </c>
-      <c r="AC10">
-        <v>146</v>
-      </c>
-      <c r="AD10">
-        <v>148</v>
-      </c>
       <c r="AE10">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="AF10">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AG10">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AH10">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="AI10">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AJ10">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK10">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AL10">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM10">
         <v>3</v>
@@ -4565,109 +4565,109 @@
         <v>6</v>
       </c>
       <c r="D11">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E11">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F11">
+        <v>187</v>
+      </c>
+      <c r="G11">
+        <v>205</v>
+      </c>
+      <c r="H11">
+        <v>204</v>
+      </c>
+      <c r="I11">
+        <v>185</v>
+      </c>
+      <c r="J11">
+        <v>158</v>
+      </c>
+      <c r="K11">
+        <v>110</v>
+      </c>
+      <c r="L11">
+        <v>137</v>
+      </c>
+      <c r="M11">
+        <v>104</v>
+      </c>
+      <c r="N11">
+        <v>65</v>
+      </c>
+      <c r="O11">
+        <v>71</v>
+      </c>
+      <c r="P11">
+        <v>62</v>
+      </c>
+      <c r="Q11">
+        <v>63</v>
+      </c>
+      <c r="R11">
+        <v>81</v>
+      </c>
+      <c r="S11">
+        <v>77</v>
+      </c>
+      <c r="T11">
+        <v>66</v>
+      </c>
+      <c r="U11">
+        <v>71</v>
+      </c>
+      <c r="V11">
+        <v>107</v>
+      </c>
+      <c r="W11">
+        <v>74</v>
+      </c>
+      <c r="X11">
+        <v>57</v>
+      </c>
+      <c r="Y11">
+        <v>78</v>
+      </c>
+      <c r="Z11">
+        <v>113</v>
+      </c>
+      <c r="AA11">
         <v>194</v>
       </c>
-      <c r="G11">
-        <v>210</v>
-      </c>
-      <c r="H11">
-        <v>210</v>
-      </c>
-      <c r="I11">
-        <v>194</v>
-      </c>
-      <c r="J11">
-        <v>163</v>
-      </c>
-      <c r="K11">
-        <v>116</v>
-      </c>
-      <c r="L11">
-        <v>207</v>
-      </c>
-      <c r="M11">
-        <v>152</v>
-      </c>
-      <c r="N11">
-        <v>96</v>
-      </c>
-      <c r="O11">
-        <v>105</v>
-      </c>
-      <c r="P11">
-        <v>92</v>
-      </c>
-      <c r="Q11">
-        <v>92</v>
-      </c>
-      <c r="R11">
-        <v>120</v>
-      </c>
-      <c r="S11">
-        <v>114</v>
-      </c>
-      <c r="T11">
-        <v>99</v>
-      </c>
-      <c r="U11">
-        <v>104</v>
-      </c>
-      <c r="V11">
-        <v>157</v>
-      </c>
-      <c r="W11">
-        <v>108</v>
-      </c>
-      <c r="X11">
-        <v>86</v>
-      </c>
-      <c r="Y11">
-        <v>116</v>
-      </c>
-      <c r="Z11">
-        <v>116</v>
-      </c>
-      <c r="AA11">
-        <v>201</v>
-      </c>
       <c r="AB11">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="AC11">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="AD11">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AE11">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="AF11">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="AG11">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AH11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AI11">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AJ11">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AK11">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM11">
         <v>3</v>
@@ -4684,112 +4684,112 @@
         <v>6</v>
       </c>
       <c r="D12">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E12">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F12">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="G12">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="H12">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="I12">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="J12">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="K12">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="L12">
-        <v>243</v>
+        <v>160</v>
       </c>
       <c r="M12">
-        <v>167</v>
+        <v>113</v>
       </c>
       <c r="N12">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="O12">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="P12">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="Q12">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="R12">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="S12">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="T12">
+        <v>69</v>
+      </c>
+      <c r="U12">
+        <v>90</v>
+      </c>
+      <c r="V12">
+        <v>95</v>
+      </c>
+      <c r="W12">
+        <v>103</v>
+      </c>
+      <c r="X12">
+        <v>100</v>
+      </c>
+      <c r="Y12">
+        <v>106</v>
+      </c>
+      <c r="Z12">
+        <v>153</v>
+      </c>
+      <c r="AA12">
+        <v>265</v>
+      </c>
+      <c r="AB12">
+        <v>268</v>
+      </c>
+      <c r="AC12">
+        <v>154</v>
+      </c>
+      <c r="AD12">
+        <v>252</v>
+      </c>
+      <c r="AE12">
+        <v>166</v>
+      </c>
+      <c r="AF12">
+        <v>122</v>
+      </c>
+      <c r="AG12">
         <v>104</v>
       </c>
-      <c r="U12">
-        <v>132</v>
-      </c>
-      <c r="V12">
-        <v>137</v>
-      </c>
-      <c r="W12">
-        <v>151</v>
-      </c>
-      <c r="X12">
-        <v>150</v>
-      </c>
-      <c r="Y12">
-        <v>157</v>
-      </c>
-      <c r="Z12">
-        <v>158</v>
-      </c>
-      <c r="AA12">
-        <v>276</v>
-      </c>
-      <c r="AB12">
-        <v>276</v>
-      </c>
-      <c r="AC12">
-        <v>158</v>
-      </c>
-      <c r="AD12">
-        <v>258</v>
-      </c>
-      <c r="AE12">
-        <v>176</v>
-      </c>
-      <c r="AF12">
-        <v>125</v>
-      </c>
-      <c r="AG12">
-        <v>108</v>
-      </c>
       <c r="AH12">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AI12">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AJ12">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AK12">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AL12">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AM12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:39">
@@ -4797,115 +4797,115 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D13">
-        <v>643</v>
+        <v>612</v>
       </c>
       <c r="E13">
-        <v>905</v>
+        <v>877</v>
       </c>
       <c r="F13">
-        <v>1080</v>
+        <v>1051</v>
       </c>
       <c r="G13">
-        <v>1167</v>
+        <v>1129</v>
       </c>
       <c r="H13">
-        <v>1167</v>
+        <v>1112</v>
       </c>
       <c r="I13">
-        <v>1080</v>
+        <v>1027</v>
       </c>
       <c r="J13">
-        <v>905</v>
+        <v>873</v>
       </c>
       <c r="K13">
-        <v>643</v>
+        <v>617</v>
       </c>
       <c r="L13">
-        <v>1167</v>
+        <v>783</v>
       </c>
       <c r="M13">
-        <v>889</v>
+        <v>599</v>
       </c>
       <c r="N13">
-        <v>618</v>
+        <v>427</v>
       </c>
       <c r="O13">
-        <v>681</v>
+        <v>470</v>
       </c>
       <c r="P13">
-        <v>750</v>
+        <v>512</v>
       </c>
       <c r="Q13">
-        <v>638</v>
+        <v>425</v>
       </c>
       <c r="R13">
-        <v>830</v>
+        <v>558</v>
       </c>
       <c r="S13">
-        <v>688</v>
+        <v>469</v>
       </c>
       <c r="T13">
-        <v>567</v>
+        <v>380</v>
       </c>
       <c r="U13">
-        <v>495</v>
+        <v>339</v>
       </c>
       <c r="V13">
-        <v>534</v>
+        <v>364</v>
       </c>
       <c r="W13">
-        <v>461</v>
+        <v>319</v>
       </c>
       <c r="X13">
-        <v>560</v>
+        <v>373</v>
       </c>
       <c r="Y13">
-        <v>567</v>
+        <v>375</v>
       </c>
       <c r="Z13">
-        <v>643</v>
+        <v>612</v>
       </c>
       <c r="AA13">
-        <v>1119</v>
+        <v>1064</v>
       </c>
       <c r="AB13">
-        <v>1119</v>
+        <v>1064</v>
       </c>
       <c r="AC13">
-        <v>643</v>
+        <v>625</v>
       </c>
       <c r="AD13">
-        <v>682</v>
+        <v>659</v>
       </c>
       <c r="AE13">
-        <v>647</v>
+        <v>610</v>
       </c>
       <c r="AF13">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="AG13">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="AH13">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="AI13">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="AJ13">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="AK13">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="AL13">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM13">
         <v>5</v>
@@ -4922,112 +4922,112 @@
         <v>9</v>
       </c>
       <c r="D14">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E14">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="F14">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="G14">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="H14">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="I14">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="J14">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="K14">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="L14">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="M14">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="N14">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="O14">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="P14">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="Q14">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="R14">
+        <v>76</v>
+      </c>
+      <c r="S14">
+        <v>98</v>
+      </c>
+      <c r="T14">
+        <v>89</v>
+      </c>
+      <c r="U14">
+        <v>103</v>
+      </c>
+      <c r="V14">
         <v>112</v>
       </c>
-      <c r="S14">
-        <v>144</v>
-      </c>
-      <c r="T14">
+      <c r="W14">
+        <v>95</v>
+      </c>
+      <c r="X14">
+        <v>91</v>
+      </c>
+      <c r="Y14">
         <v>133</v>
       </c>
-      <c r="U14">
-        <v>150</v>
-      </c>
-      <c r="V14">
-        <v>164</v>
-      </c>
-      <c r="W14">
-        <v>138</v>
-      </c>
-      <c r="X14">
-        <v>137</v>
-      </c>
-      <c r="Y14">
-        <v>201</v>
-      </c>
       <c r="Z14">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AA14">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="AB14">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="AC14">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="AD14">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AE14">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="AF14">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AG14">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AH14">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="AI14">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AJ14">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AK14">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AL14">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM14">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:39">
@@ -5038,115 +5038,115 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E15">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F15">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="G15">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="H15">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="I15">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="J15">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="K15">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="L15">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="M15">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="N15">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="O15">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="P15">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="Q15">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="R15">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="S15">
+        <v>88</v>
+      </c>
+      <c r="T15">
+        <v>76</v>
+      </c>
+      <c r="U15">
+        <v>79</v>
+      </c>
+      <c r="V15">
+        <v>71</v>
+      </c>
+      <c r="W15">
+        <v>82</v>
+      </c>
+      <c r="X15">
+        <v>88</v>
+      </c>
+      <c r="Y15">
+        <v>99</v>
+      </c>
+      <c r="Z15">
+        <v>147</v>
+      </c>
+      <c r="AA15">
+        <v>257</v>
+      </c>
+      <c r="AB15">
+        <v>255</v>
+      </c>
+      <c r="AC15">
+        <v>151</v>
+      </c>
+      <c r="AD15">
+        <v>224</v>
+      </c>
+      <c r="AE15">
+        <v>176</v>
+      </c>
+      <c r="AF15">
+        <v>130</v>
+      </c>
+      <c r="AG15">
         <v>128</v>
       </c>
-      <c r="T15">
-        <v>112</v>
-      </c>
-      <c r="U15">
-        <v>115</v>
-      </c>
-      <c r="V15">
-        <v>106</v>
-      </c>
-      <c r="W15">
-        <v>122</v>
-      </c>
-      <c r="X15">
-        <v>131</v>
-      </c>
-      <c r="Y15">
-        <v>147</v>
-      </c>
-      <c r="Z15">
-        <v>154</v>
-      </c>
-      <c r="AA15">
-        <v>268</v>
-      </c>
-      <c r="AB15">
-        <v>268</v>
-      </c>
-      <c r="AC15">
-        <v>154</v>
-      </c>
-      <c r="AD15">
-        <v>230</v>
-      </c>
-      <c r="AE15">
-        <v>182</v>
-      </c>
-      <c r="AF15">
-        <v>134</v>
-      </c>
-      <c r="AG15">
-        <v>131</v>
-      </c>
       <c r="AH15">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AI15">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="AJ15">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AK15">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AL15">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM15">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:39">
@@ -5154,115 +5154,115 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D16">
-        <v>1013</v>
+        <v>981</v>
       </c>
       <c r="E16">
-        <v>1426</v>
+        <v>1389</v>
       </c>
       <c r="F16">
-        <v>1701</v>
+        <v>1624</v>
       </c>
       <c r="G16">
-        <v>1839</v>
+        <v>1797</v>
       </c>
       <c r="H16">
-        <v>1839</v>
+        <v>1788</v>
       </c>
       <c r="I16">
-        <v>1701</v>
+        <v>1617</v>
       </c>
       <c r="J16">
-        <v>1426</v>
+        <v>1384</v>
       </c>
       <c r="K16">
-        <v>1013</v>
+        <v>979</v>
       </c>
       <c r="L16">
-        <v>1839</v>
+        <v>1248</v>
       </c>
       <c r="M16">
-        <v>1461</v>
+        <v>986</v>
       </c>
       <c r="N16">
-        <v>1099</v>
+        <v>763</v>
       </c>
       <c r="O16">
-        <v>1024</v>
+        <v>704</v>
       </c>
       <c r="P16">
-        <v>876</v>
+        <v>584</v>
       </c>
       <c r="Q16">
-        <v>1073</v>
+        <v>716</v>
       </c>
       <c r="R16">
-        <v>920</v>
+        <v>623</v>
       </c>
       <c r="S16">
-        <v>1033</v>
+        <v>701</v>
       </c>
       <c r="T16">
-        <v>777</v>
+        <v>521</v>
       </c>
       <c r="U16">
-        <v>771</v>
+        <v>522</v>
       </c>
       <c r="V16">
-        <v>684</v>
+        <v>471</v>
       </c>
       <c r="W16">
-        <v>582</v>
+        <v>395</v>
       </c>
       <c r="X16">
-        <v>784</v>
+        <v>527</v>
       </c>
       <c r="Y16">
-        <v>851</v>
+        <v>574</v>
       </c>
       <c r="Z16">
-        <v>1013</v>
+        <v>972</v>
       </c>
       <c r="AA16">
-        <v>1763</v>
+        <v>1690</v>
       </c>
       <c r="AB16">
-        <v>1763</v>
+        <v>1679</v>
       </c>
       <c r="AC16">
-        <v>1013</v>
+        <v>985</v>
       </c>
       <c r="AD16">
-        <v>1328</v>
+        <v>1302</v>
       </c>
       <c r="AE16">
-        <v>1061</v>
+        <v>1021</v>
       </c>
       <c r="AF16">
-        <v>817</v>
+        <v>783</v>
       </c>
       <c r="AG16">
-        <v>585</v>
+        <v>568</v>
       </c>
       <c r="AH16">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="AI16">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="AJ16">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="AK16">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="AL16">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AM16">
         <v>9</v>
@@ -5279,109 +5279,109 @@
         <v>11</v>
       </c>
       <c r="D17">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E17">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F17">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="G17">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="H17">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="I17">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="J17">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="K17">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L17">
-        <v>268</v>
+        <v>181</v>
       </c>
       <c r="M17">
-        <v>216</v>
+        <v>144</v>
       </c>
       <c r="N17">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="O17">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="P17">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="Q17">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="R17">
-        <v>145</v>
+        <v>97</v>
       </c>
       <c r="S17">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="T17">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="U17">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="V17">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="W17">
+        <v>82</v>
+      </c>
+      <c r="X17">
+        <v>98</v>
+      </c>
+      <c r="Y17">
+        <v>108</v>
+      </c>
+      <c r="Z17">
+        <v>172</v>
+      </c>
+      <c r="AA17">
+        <v>293</v>
+      </c>
+      <c r="AB17">
+        <v>298</v>
+      </c>
+      <c r="AC17">
+        <v>167</v>
+      </c>
+      <c r="AD17">
+        <v>303</v>
+      </c>
+      <c r="AE17">
+        <v>224</v>
+      </c>
+      <c r="AF17">
+        <v>164</v>
+      </c>
+      <c r="AG17">
+        <v>141</v>
+      </c>
+      <c r="AH17">
         <v>120</v>
       </c>
-      <c r="X17">
-        <v>148</v>
-      </c>
-      <c r="Y17">
-        <v>159</v>
-      </c>
-      <c r="Z17">
-        <v>176</v>
-      </c>
-      <c r="AA17">
-        <v>306</v>
-      </c>
-      <c r="AB17">
-        <v>306</v>
-      </c>
-      <c r="AC17">
-        <v>176</v>
-      </c>
-      <c r="AD17">
-        <v>310</v>
-      </c>
-      <c r="AE17">
-        <v>234</v>
-      </c>
-      <c r="AF17">
-        <v>170</v>
-      </c>
-      <c r="AG17">
-        <v>145</v>
-      </c>
-      <c r="AH17">
-        <v>124</v>
-      </c>
       <c r="AI17">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AJ17">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AK17">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AL17">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AM17">
         <v>4</v>
@@ -5398,106 +5398,106 @@
         <v>3</v>
       </c>
       <c r="D18">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E18">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F18">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G18">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H18">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="I18">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="J18">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="K18">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L18">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="M18">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="N18">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="O18">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="P18">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="Q18">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="R18">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="S18">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="T18">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="U18">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="V18">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="W18">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="X18">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="Y18">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="Z18">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AA18">
+        <v>170</v>
+      </c>
+      <c r="AB18">
+        <v>166</v>
+      </c>
+      <c r="AC18">
+        <v>97</v>
+      </c>
+      <c r="AD18">
         <v>174</v>
       </c>
-      <c r="AB18">
-        <v>174</v>
-      </c>
-      <c r="AC18">
-        <v>100</v>
-      </c>
-      <c r="AD18">
-        <v>181</v>
-      </c>
       <c r="AE18">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="AF18">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AG18">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH18">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AI18">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AJ18">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AK18">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AL18">
         <v>17</v>
@@ -5517,109 +5517,109 @@
         <v>7</v>
       </c>
       <c r="D19">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E19">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F19">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="G19">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="H19">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="I19">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J19">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="K19">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L19">
-        <v>211</v>
+        <v>141</v>
       </c>
       <c r="M19">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="N19">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="O19">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="P19">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="Q19">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="R19">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="S19">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="T19">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="U19">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="V19">
+        <v>54</v>
+      </c>
+      <c r="W19">
+        <v>60</v>
+      </c>
+      <c r="X19">
+        <v>77</v>
+      </c>
+      <c r="Y19">
+        <v>71</v>
+      </c>
+      <c r="Z19">
+        <v>129</v>
+      </c>
+      <c r="AA19">
+        <v>226</v>
+      </c>
+      <c r="AB19">
+        <v>226</v>
+      </c>
+      <c r="AC19">
+        <v>128</v>
+      </c>
+      <c r="AD19">
+        <v>237</v>
+      </c>
+      <c r="AE19">
+        <v>205</v>
+      </c>
+      <c r="AF19">
+        <v>155</v>
+      </c>
+      <c r="AG19">
+        <v>110</v>
+      </c>
+      <c r="AH19">
+        <v>116</v>
+      </c>
+      <c r="AI19">
+        <v>94</v>
+      </c>
+      <c r="AJ19">
         <v>79</v>
       </c>
-      <c r="W19">
-        <v>88</v>
-      </c>
-      <c r="X19">
-        <v>114</v>
-      </c>
-      <c r="Y19">
-        <v>106</v>
-      </c>
-      <c r="Z19">
-        <v>134</v>
-      </c>
-      <c r="AA19">
-        <v>233</v>
-      </c>
-      <c r="AB19">
-        <v>233</v>
-      </c>
-      <c r="AC19">
-        <v>134</v>
-      </c>
-      <c r="AD19">
-        <v>244</v>
-      </c>
-      <c r="AE19">
-        <v>217</v>
-      </c>
-      <c r="AF19">
-        <v>162</v>
-      </c>
-      <c r="AG19">
-        <v>113</v>
-      </c>
-      <c r="AH19">
-        <v>119</v>
-      </c>
-      <c r="AI19">
-        <v>96</v>
-      </c>
-      <c r="AJ19">
-        <v>82</v>
-      </c>
       <c r="AK19">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AL19">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM19">
         <v>7</v>
@@ -5636,109 +5636,109 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E20">
+        <v>141</v>
+      </c>
+      <c r="F20">
+        <v>172</v>
+      </c>
+      <c r="G20">
+        <v>185</v>
+      </c>
+      <c r="H20">
+        <v>186</v>
+      </c>
+      <c r="I20">
+        <v>173</v>
+      </c>
+      <c r="J20">
+        <v>144</v>
+      </c>
+      <c r="K20">
+        <v>100</v>
+      </c>
+      <c r="L20">
+        <v>62</v>
+      </c>
+      <c r="M20">
+        <v>33</v>
+      </c>
+      <c r="N20">
+        <v>26</v>
+      </c>
+      <c r="O20">
+        <v>25</v>
+      </c>
+      <c r="P20">
+        <v>28</v>
+      </c>
+      <c r="Q20">
+        <v>28</v>
+      </c>
+      <c r="R20">
+        <v>28</v>
+      </c>
+      <c r="S20">
+        <v>27</v>
+      </c>
+      <c r="T20">
+        <v>29</v>
+      </c>
+      <c r="U20">
+        <v>35</v>
+      </c>
+      <c r="V20">
+        <v>26</v>
+      </c>
+      <c r="W20">
+        <v>40</v>
+      </c>
+      <c r="X20">
+        <v>44</v>
+      </c>
+      <c r="Y20">
+        <v>58</v>
+      </c>
+      <c r="Z20">
+        <v>102</v>
+      </c>
+      <c r="AA20">
+        <v>178</v>
+      </c>
+      <c r="AB20">
+        <v>175</v>
+      </c>
+      <c r="AC20">
+        <v>101</v>
+      </c>
+      <c r="AD20">
+        <v>182</v>
+      </c>
+      <c r="AE20">
+        <v>187</v>
+      </c>
+      <c r="AF20">
+        <v>186</v>
+      </c>
+      <c r="AG20">
         <v>148</v>
       </c>
-      <c r="F20">
-        <v>177</v>
-      </c>
-      <c r="G20">
-        <v>191</v>
-      </c>
-      <c r="H20">
-        <v>191</v>
-      </c>
-      <c r="I20">
-        <v>177</v>
-      </c>
-      <c r="J20">
-        <v>148</v>
-      </c>
-      <c r="K20">
-        <v>105</v>
-      </c>
-      <c r="L20">
-        <v>91</v>
-      </c>
-      <c r="M20">
-        <v>50</v>
-      </c>
-      <c r="N20">
-        <v>38</v>
-      </c>
-      <c r="O20">
-        <v>37</v>
-      </c>
-      <c r="P20">
-        <v>41</v>
-      </c>
-      <c r="Q20">
-        <v>42</v>
-      </c>
-      <c r="R20">
-        <v>43</v>
-      </c>
-      <c r="S20">
-        <v>40</v>
-      </c>
-      <c r="T20">
-        <v>43</v>
-      </c>
-      <c r="U20">
-        <v>50</v>
-      </c>
-      <c r="V20">
-        <v>37</v>
-      </c>
-      <c r="W20">
-        <v>60</v>
-      </c>
-      <c r="X20">
-        <v>64</v>
-      </c>
-      <c r="Y20">
-        <v>86</v>
-      </c>
-      <c r="Z20">
-        <v>105</v>
-      </c>
-      <c r="AA20">
-        <v>183</v>
-      </c>
-      <c r="AB20">
-        <v>183</v>
-      </c>
-      <c r="AC20">
-        <v>105</v>
-      </c>
-      <c r="AD20">
-        <v>191</v>
-      </c>
-      <c r="AE20">
-        <v>191</v>
-      </c>
-      <c r="AF20">
-        <v>191</v>
-      </c>
-      <c r="AG20">
-        <v>152</v>
-      </c>
       <c r="AH20">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="AI20">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="AJ20">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AK20">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AL20">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM20">
         <v>6</v>
@@ -5752,112 +5752,112 @@
         <v>15</v>
       </c>
       <c r="C21">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D21">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="E21">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="F21">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="G21">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="H21">
-        <v>446</v>
+        <v>425</v>
       </c>
       <c r="I21">
-        <v>412</v>
+        <v>392</v>
       </c>
       <c r="J21">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="K21">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="L21">
-        <v>446</v>
+        <v>305</v>
       </c>
       <c r="M21">
-        <v>252</v>
+        <v>172</v>
       </c>
       <c r="N21">
-        <v>226</v>
+        <v>157</v>
       </c>
       <c r="O21">
-        <v>175</v>
+        <v>117</v>
       </c>
       <c r="P21">
-        <v>189</v>
+        <v>128</v>
       </c>
       <c r="Q21">
-        <v>229</v>
+        <v>156</v>
       </c>
       <c r="R21">
-        <v>160</v>
+        <v>107</v>
       </c>
       <c r="S21">
-        <v>195</v>
+        <v>132</v>
       </c>
       <c r="T21">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="U21">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="V21">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="W21">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="X21">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="Y21">
-        <v>183</v>
+        <v>123</v>
       </c>
       <c r="Z21">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="AA21">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="AB21">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="AC21">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="AD21">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="AE21">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="AF21">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="AG21">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="AH21">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AI21">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="AJ21">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AK21">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AL21">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM21">
         <v>9</v>
@@ -5874,109 +5874,109 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E22">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F22">
+        <v>84</v>
+      </c>
+      <c r="G22">
+        <v>90</v>
+      </c>
+      <c r="H22">
+        <v>91</v>
+      </c>
+      <c r="I22">
+        <v>84</v>
+      </c>
+      <c r="J22">
+        <v>70</v>
+      </c>
+      <c r="K22">
+        <v>50</v>
+      </c>
+      <c r="L22">
+        <v>14</v>
+      </c>
+      <c r="M22">
+        <v>11</v>
+      </c>
+      <c r="N22">
+        <v>9</v>
+      </c>
+      <c r="O22">
+        <v>11</v>
+      </c>
+      <c r="P22">
+        <v>12</v>
+      </c>
+      <c r="Q22">
+        <v>11</v>
+      </c>
+      <c r="R22">
+        <v>13</v>
+      </c>
+      <c r="S22">
+        <v>14</v>
+      </c>
+      <c r="T22">
+        <v>12</v>
+      </c>
+      <c r="U22">
+        <v>12</v>
+      </c>
+      <c r="V22">
+        <v>13</v>
+      </c>
+      <c r="W22">
+        <v>17</v>
+      </c>
+      <c r="X22">
+        <v>20</v>
+      </c>
+      <c r="Y22">
+        <v>24</v>
+      </c>
+      <c r="Z22">
+        <v>50</v>
+      </c>
+      <c r="AA22">
+        <v>88</v>
+      </c>
+      <c r="AB22">
         <v>87</v>
       </c>
-      <c r="G22">
-        <v>94</v>
-      </c>
-      <c r="H22">
-        <v>94</v>
-      </c>
-      <c r="I22">
-        <v>87</v>
-      </c>
-      <c r="J22">
-        <v>73</v>
-      </c>
-      <c r="K22">
-        <v>52</v>
-      </c>
-      <c r="L22">
-        <v>21</v>
-      </c>
-      <c r="M22">
-        <v>15</v>
-      </c>
-      <c r="N22">
-        <v>14</v>
-      </c>
-      <c r="O22">
-        <v>16</v>
-      </c>
-      <c r="P22">
+      <c r="AC22">
+        <v>50</v>
+      </c>
+      <c r="AD22">
+        <v>90</v>
+      </c>
+      <c r="AE22">
+        <v>91</v>
+      </c>
+      <c r="AF22">
+        <v>92</v>
+      </c>
+      <c r="AG22">
+        <v>80</v>
+      </c>
+      <c r="AH22">
+        <v>67</v>
+      </c>
+      <c r="AI22">
+        <v>60</v>
+      </c>
+      <c r="AJ22">
+        <v>56</v>
+      </c>
+      <c r="AK22">
+        <v>32</v>
+      </c>
+      <c r="AL22">
         <v>17</v>
-      </c>
-      <c r="Q22">
-        <v>16</v>
-      </c>
-      <c r="R22">
-        <v>19</v>
-      </c>
-      <c r="S22">
-        <v>20</v>
-      </c>
-      <c r="T22">
-        <v>18</v>
-      </c>
-      <c r="U22">
-        <v>18</v>
-      </c>
-      <c r="V22">
-        <v>19</v>
-      </c>
-      <c r="W22">
-        <v>26</v>
-      </c>
-      <c r="X22">
-        <v>29</v>
-      </c>
-      <c r="Y22">
-        <v>36</v>
-      </c>
-      <c r="Z22">
-        <v>52</v>
-      </c>
-      <c r="AA22">
-        <v>90</v>
-      </c>
-      <c r="AB22">
-        <v>90</v>
-      </c>
-      <c r="AC22">
-        <v>52</v>
-      </c>
-      <c r="AD22">
-        <v>94</v>
-      </c>
-      <c r="AE22">
-        <v>94</v>
-      </c>
-      <c r="AF22">
-        <v>94</v>
-      </c>
-      <c r="AG22">
-        <v>81</v>
-      </c>
-      <c r="AH22">
-        <v>70</v>
-      </c>
-      <c r="AI22">
-        <v>63</v>
-      </c>
-      <c r="AJ22">
-        <v>58</v>
-      </c>
-      <c r="AK22">
-        <v>33</v>
-      </c>
-      <c r="AL22">
-        <v>18</v>
       </c>
       <c r="AM22">
         <v>5</v>
@@ -5993,109 +5993,109 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E23">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F23">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G23">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H23">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I23">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J23">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K23">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L23">
+        <v>11</v>
+      </c>
+      <c r="M23">
+        <v>11</v>
+      </c>
+      <c r="N23">
+        <v>9</v>
+      </c>
+      <c r="O23">
+        <v>10</v>
+      </c>
+      <c r="P23">
+        <v>11</v>
+      </c>
+      <c r="Q23">
+        <v>12</v>
+      </c>
+      <c r="R23">
+        <v>10</v>
+      </c>
+      <c r="S23">
+        <v>10</v>
+      </c>
+      <c r="T23">
+        <v>12</v>
+      </c>
+      <c r="U23">
+        <v>12</v>
+      </c>
+      <c r="V23">
+        <v>14</v>
+      </c>
+      <c r="W23">
         <v>16</v>
       </c>
-      <c r="M23">
-        <v>15</v>
-      </c>
-      <c r="N23">
-        <v>14</v>
-      </c>
-      <c r="O23">
-        <v>15</v>
-      </c>
-      <c r="P23">
-        <v>16</v>
-      </c>
-      <c r="Q23">
-        <v>17</v>
-      </c>
-      <c r="R23">
-        <v>16</v>
-      </c>
-      <c r="S23">
-        <v>15</v>
-      </c>
-      <c r="T23">
-        <v>18</v>
-      </c>
-      <c r="U23">
-        <v>18</v>
-      </c>
-      <c r="V23">
-        <v>21</v>
-      </c>
-      <c r="W23">
-        <v>23</v>
-      </c>
       <c r="X23">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="Y23">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="Z23">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AA23">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="AB23">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AC23">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AD23">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="AE23">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="AF23">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="AG23">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AH23">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AI23">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AJ23">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AK23">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AL23">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM23">
         <v>8</v>
